--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12760"/>
+    <workbookView windowWidth="27240" windowHeight="12740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>名称</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>分众传媒</t>
+  </si>
+  <si>
+    <t>天地在线</t>
   </si>
 </sst>
 </file>
@@ -157,8 +160,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -182,13 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -201,6 +197,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,32 +239,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,16 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,15 +295,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,43 +415,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,127 +565,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,47 +677,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -743,157 +705,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,6 +943,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,14 +1351,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1411,76 +1420,76 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="23" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="25" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AH1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AK1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AL1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AM1" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AN1" s="2" t="s">
@@ -1493,74 +1502,74 @@
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="21" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="41"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43"/>
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40">
@@ -1578,31 +1587,31 @@
         <f>(C3-C4)/C4</f>
         <v>0.136217483879853</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="21">
         <v>101407289</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="22">
         <v>5307487463.86</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="22">
         <v>2597344300.25</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="22">
         <v>2577599922.5</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="24">
         <v>38500000</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="24">
         <v>23161410.09</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="24">
         <v>379657718.27</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="24">
         <v>1035023511.03</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="24">
         <v>558958299.5</v>
       </c>
       <c r="Z3" s="4">
@@ -1614,25 +1623,25 @@
         <v>1593981810.53</v>
       </c>
       <c r="AB3" s="5">
-        <f>(G3+Z3-AA3)</f>
+        <f t="shared" ref="AB3:AB8" si="2">(G3+Z3-AA3)</f>
         <v>1444681618.08</v>
       </c>
       <c r="AC3" s="2">
         <f>(AB3-AB4)/AB4</f>
         <v>0.888539280652637</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="24">
         <v>841201241.94</v>
       </c>
       <c r="AF3" s="2">
         <f>(AE3-AE4)/AE4</f>
         <v>0.446715197438719</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="24">
         <v>14783596.82</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" ref="AN3:AN8" si="2">(AE3+AG3)/(G3+Z3-AA3)</f>
+        <f t="shared" ref="AN3:AN8" si="3">(AE3+AG3)/(G3+Z3-AA3)</f>
         <v>0.592507600323464</v>
       </c>
     </row>
@@ -1652,25 +1661,25 @@
       <c r="E4" s="1">
         <v>69677800</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="22">
         <v>3209613710.56</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="22">
         <v>2007180656.87</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="22">
         <v>2007180656.87</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="24">
         <v>5706932.74</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="24">
         <v>100000000</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="24">
         <v>568074363.31</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="24">
         <v>779840195.09</v>
       </c>
       <c r="Z4" s="4">
@@ -1682,25 +1691,25 @@
         <v>1347914558.4</v>
       </c>
       <c r="AB4" s="5">
-        <f>(G4+Z4-AA4)</f>
+        <f t="shared" si="2"/>
         <v>764973031.21</v>
       </c>
       <c r="AC4" s="2">
         <f>(AB4-AB5)/AB5</f>
         <v>0.920254671725826</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="24">
         <v>581456006.98</v>
       </c>
       <c r="AF4" s="2">
         <f>(AE4-AE5)/AE5</f>
         <v>0.377145008566829</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AG4" s="24">
         <v>-5615997.1</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.752758576297993</v>
       </c>
     </row>
@@ -1717,30 +1726,30 @@
         <f>(C5-C6)/C6</f>
         <v>1.1288259725764</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="21">
         <v>69677800</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="22">
         <v>2432708653.17</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="22">
         <v>1689929864.37</v>
       </c>
       <c r="H5" s="1">
         <f>G5</f>
         <v>1689929864.37</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="N5" s="22">
+      <c r="L5" s="24"/>
+      <c r="N5" s="24">
         <v>20000000</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="24">
         <v>117858210.07</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="24">
         <v>1103701041.03</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="24">
         <v>90000000</v>
       </c>
       <c r="Z5" s="4">
@@ -1752,25 +1761,25 @@
         <v>1311559251.1</v>
       </c>
       <c r="AB5" s="5">
-        <f>(G5+Z5-AA5)</f>
+        <f t="shared" si="2"/>
         <v>398370613.27</v>
       </c>
       <c r="AC5" s="2">
         <f>(AB5-AB6)/AB6</f>
         <v>1.94287777526496</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="24">
         <v>422218432.6</v>
       </c>
       <c r="AF5" s="2">
         <f>(AE5-AE6)/AE6</f>
         <v>0.845884860956732</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5" s="24">
         <v>-3556755.26</v>
       </c>
       <c r="AN5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.05093514278938</v>
       </c>
     </row>
@@ -1787,26 +1796,26 @@
         <f>(C6-C7)/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="21">
         <v>51800000</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="22">
         <v>849542812.03</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="22">
         <v>376395738.7</v>
       </c>
       <c r="H6" s="1">
         <f>G6</f>
         <v>376395738.7</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="24">
         <v>14000000</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="24">
         <v>67000000</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="24">
         <v>322028032.77</v>
       </c>
       <c r="Z6" s="4">
@@ -1818,25 +1827,25 @@
         <v>322028032.77</v>
       </c>
       <c r="AB6" s="5">
-        <f>(G6+Z6-AA6)</f>
+        <f t="shared" si="2"/>
         <v>135367705.93</v>
       </c>
       <c r="AC6" s="2">
         <f>(AB6-AB7)/AB7</f>
         <v>1.23851987887478</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="24">
         <v>228734977.75</v>
       </c>
       <c r="AF6" s="2">
         <f>(AE6-AE7)/AE7</f>
         <v>0.545729046437287</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="24">
         <v>3345408.95</v>
       </c>
       <c r="AN6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.71444426206064</v>
       </c>
     </row>
@@ -1845,22 +1854,22 @@
       <c r="B7" s="1">
         <v>2018</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="22">
         <v>655642978.35</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="22">
         <v>260472684.71</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="22">
         <v>260472684.71</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="24">
         <v>4000000</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="24">
         <v>39000000</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="24">
         <v>243000715.17</v>
       </c>
       <c r="Z7" s="4">
@@ -1872,25 +1881,25 @@
         <v>243000715.17</v>
       </c>
       <c r="AB7" s="5">
-        <f>(G7+Z7-AA7)</f>
+        <f t="shared" si="2"/>
         <v>60471969.5400001</v>
       </c>
       <c r="AC7" s="2">
         <f>(AB7-AB8)/AB8</f>
         <v>4.30487724292338</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="24">
         <v>147978701.88</v>
       </c>
       <c r="AF7" s="2">
         <f>(AE7-AE8)/AE8</f>
         <v>0.252672264816477</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="24">
         <v>2226270.2</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.48387762499855</v>
       </c>
     </row>
@@ -1899,22 +1908,22 @@
       <c r="B8" s="1">
         <v>2017</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="22">
         <v>521985587.23</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="22">
         <v>188242134.75</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="22">
         <v>188242134.75</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="24">
         <v>4000000</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="24">
         <v>30500000</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="24">
         <v>211342819.22</v>
       </c>
       <c r="Z8" s="4">
@@ -1926,17 +1935,17 @@
         <v>211342819.22</v>
       </c>
       <c r="AB8" s="5">
-        <f>(G8+Z8-AA8)</f>
+        <f t="shared" si="2"/>
         <v>11399315.53</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="24">
         <v>118130420.89</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8" s="24">
         <v>2431512.18</v>
       </c>
       <c r="AN8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.5762431746637</v>
       </c>
     </row>
@@ -1979,64 +1988,64 @@
       <c r="B14" s="1">
         <v>2022</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="22">
         <v>25238766516.08</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="22">
         <v>17296017322.93</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="22">
         <v>16948889697.69</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="24">
         <v>742652495.7</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="24">
         <v>12186394.91</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="24">
         <v>1880144644.14</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="24">
         <v>921897223.15</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="24">
         <v>2788812386.06</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="24">
         <v>3280167249.76</v>
       </c>
-      <c r="Y14" s="22">
+      <c r="Y14" s="24">
         <v>4657152857.47</v>
       </c>
       <c r="Z14" s="4">
-        <f>SUM(I14:P14)</f>
+        <f t="shared" ref="Z14:Z21" si="4">SUM(I14:P14)</f>
         <v>754838890.61</v>
       </c>
       <c r="AA14" s="4">
-        <f>SUM(Q14:Y14)</f>
+        <f t="shared" ref="AA14:AA21" si="5">SUM(Q14:Y14)</f>
         <v>13528174360.58</v>
       </c>
       <c r="AB14" s="5">
-        <f>(G14+Z14-AA14)</f>
+        <f t="shared" ref="AB14:AB21" si="6">(G14+Z14-AA14)</f>
         <v>4522681852.96</v>
       </c>
       <c r="AC14" s="2">
         <f>(AB14-AB15)/AB15</f>
         <v>-0.197825218581472</v>
       </c>
-      <c r="AE14" s="22">
+      <c r="AE14" s="24">
         <v>3506816648.23</v>
       </c>
       <c r="AF14" s="2">
-        <f>(AE14-AE15)/AE15</f>
+        <f t="shared" ref="AF14:AF20" si="7">(AE14-AE15)/AE15</f>
         <v>-0.547216033820277</v>
       </c>
-      <c r="AG14" s="22">
+      <c r="AG14" s="24">
         <v>-109962286.55</v>
       </c>
       <c r="AN14" s="2">
-        <f>(AE14+AG14)/(G14+Z14-AA14)</f>
+        <f t="shared" ref="AN14:AN21" si="8">(AE14+AG14)/(G14+Z14-AA14)</f>
         <v>0.751070818624315</v>
       </c>
     </row>
@@ -2045,64 +2054,64 @@
       <c r="B15" s="1">
         <v>2021</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="22">
         <v>25555259687.25</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="22">
         <v>18682739495.3</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="22">
         <v>18379430976.51</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="24">
         <v>812957201.36</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="24">
         <v>20838320.89</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="24">
         <v>1600082971.48</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="24">
         <v>1323030471.62</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="24">
         <v>3217641031.1</v>
       </c>
-      <c r="W15" s="22">
+      <c r="W15" s="24">
         <v>4295642365.99</v>
       </c>
-      <c r="Y15" s="22">
+      <c r="Y15" s="24">
         <v>3442112702.46</v>
       </c>
       <c r="Z15" s="4">
-        <f>SUM(I15:P15)</f>
+        <f t="shared" si="4"/>
         <v>833795522.25</v>
       </c>
       <c r="AA15" s="4">
-        <f>SUM(Q15:Y15)</f>
+        <f t="shared" si="5"/>
         <v>13878509542.65</v>
       </c>
       <c r="AB15" s="5">
-        <f>(G15+Z15-AA15)</f>
+        <f t="shared" si="6"/>
         <v>5638025474.9</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" ref="AC15:AC20" si="3">(AB15-AB16)/AB16</f>
+        <f t="shared" ref="AC15:AC20" si="9">(AB15-AB16)/AB16</f>
         <v>-0.135786566313983</v>
       </c>
-      <c r="AE15" s="22">
+      <c r="AE15" s="24">
         <v>7745010667.71</v>
       </c>
       <c r="AF15" s="2">
-        <f>(AE15-AE16)/AE16</f>
+        <f t="shared" si="7"/>
         <v>0.524596689325575</v>
       </c>
-      <c r="AG15" s="22">
+      <c r="AG15" s="24">
         <v>-168683642.15</v>
       </c>
-      <c r="AN15" s="42">
-        <f>(AE15+AG15)/(G15+Z15-AA15)</f>
+      <c r="AN15" s="44">
+        <f t="shared" si="8"/>
         <v>1.34379084650985</v>
       </c>
     </row>
@@ -2111,61 +2120,61 @@
       <c r="B16" s="1">
         <v>2020</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="22">
         <v>21646165070.03</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="22">
         <v>17272419323.58</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="22">
         <v>17016986250.45</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="24">
         <v>50310738.14</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="24">
         <v>1372869799.62</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="24">
         <v>1078844317.74</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="24">
         <v>2140888805.9</v>
       </c>
-      <c r="W16" s="22">
+      <c r="W16" s="24">
         <v>4730286378.96</v>
       </c>
-      <c r="Y16" s="22">
+      <c r="Y16" s="24">
         <v>1475959904.22</v>
       </c>
       <c r="Z16" s="4">
-        <f>SUM(I16:P16)</f>
+        <f t="shared" si="4"/>
         <v>50310738.14</v>
       </c>
       <c r="AA16" s="4">
-        <f>SUM(Q16:Y16)</f>
+        <f t="shared" si="5"/>
         <v>10798849206.44</v>
       </c>
       <c r="AB16" s="5">
-        <f>(G16+Z16-AA16)</f>
+        <f t="shared" si="6"/>
         <v>6523880855.28</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.612733810949541</v>
       </c>
-      <c r="AE16" s="22">
+      <c r="AE16" s="24">
         <v>5080039017.49</v>
       </c>
       <c r="AF16" s="2">
-        <f>(AE16-AE17)/AE17</f>
+        <f t="shared" si="7"/>
         <v>1.147085932145</v>
       </c>
-      <c r="AG16" s="22">
+      <c r="AG16" s="24">
         <v>-126605815.87</v>
       </c>
       <c r="AN16" s="2">
-        <f>(AE16+AG16)/(G16+Z16-AA16)</f>
+        <f t="shared" si="8"/>
         <v>0.759277079318672</v>
       </c>
     </row>
@@ -2174,61 +2183,61 @@
       <c r="B17" s="1">
         <v>2019</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="22">
         <v>18687079233.62</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="22">
         <v>14006351565.51</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="22">
         <v>13778408776.65</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="24">
         <v>50609581.06</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="24">
         <v>1117250673.84</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="24">
         <v>849464175.16</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="24">
         <v>1842510202.69</v>
       </c>
-      <c r="W17" s="22">
+      <c r="W17" s="24">
         <v>3860521939.04</v>
       </c>
-      <c r="Y17" s="22">
+      <c r="Y17" s="24">
         <v>2341983125.78</v>
       </c>
       <c r="Z17" s="4">
-        <f>SUM(I17:P17)</f>
+        <f t="shared" si="4"/>
         <v>50609581.06</v>
       </c>
       <c r="AA17" s="4">
-        <f>SUM(Q17:Y17)</f>
+        <f t="shared" si="5"/>
         <v>10011730116.51</v>
       </c>
       <c r="AB17" s="5">
-        <f>(G17+Z17-AA17)</f>
+        <f t="shared" si="6"/>
         <v>4045231030.06</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-0.492517335142773</v>
       </c>
-      <c r="AE17" s="22">
+      <c r="AE17" s="24">
         <v>2366015696.64</v>
       </c>
       <c r="AF17" s="2">
-        <f>(AE17-AE18)/AE18</f>
+        <f t="shared" si="7"/>
         <v>-0.659727058228938</v>
       </c>
-      <c r="AG17" s="22">
+      <c r="AG17" s="24">
         <v>-19689880.97</v>
       </c>
-      <c r="AN17" s="42">
-        <f>(AE17+AG17)/(G17+Z17-AA17)</f>
+      <c r="AN17" s="44">
+        <f t="shared" si="8"/>
         <v>0.580022697896491</v>
       </c>
     </row>
@@ -2237,61 +2246,61 @@
       <c r="B18" s="1">
         <v>2018</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="22">
         <v>19021510376.18</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="22">
         <v>14397984457.52</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="22">
         <v>14201141091.65</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="24">
         <v>892216000</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="24">
         <v>47455135.66</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="24">
         <v>2902358986.81</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="24">
         <v>792534760.28</v>
       </c>
-      <c r="W18" s="22">
+      <c r="W18" s="24">
         <v>3671590986.1</v>
       </c>
       <c r="Z18" s="4">
-        <f>SUM(I18:P18)</f>
+        <f t="shared" si="4"/>
         <v>939671135.66</v>
       </c>
       <c r="AA18" s="4">
-        <f>SUM(Q18:Y18)</f>
+        <f t="shared" si="5"/>
         <v>7366484733.19</v>
       </c>
       <c r="AB18" s="5">
-        <f>(G18+Z18-AA18)</f>
+        <f t="shared" si="6"/>
         <v>7971170859.99</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.705321880354078</v>
       </c>
       <c r="AD18" s="6">
         <v>6941932267.09</v>
       </c>
-      <c r="AE18" s="22">
+      <c r="AE18" s="24">
         <v>6953287805.74</v>
       </c>
       <c r="AF18" s="2">
-        <f>(AE18-AE19)/AE19</f>
+        <f t="shared" si="7"/>
         <v>-0.0401505555957367</v>
       </c>
-      <c r="AG18" s="22">
+      <c r="AG18" s="24">
         <v>-93655308.74</v>
       </c>
       <c r="AN18" s="2">
-        <f>(AE18+AG18)/(G18+Z18-AA18)</f>
+        <f t="shared" si="8"/>
         <v>0.860555195401822</v>
       </c>
     </row>
@@ -2300,58 +2309,58 @@
       <c r="B19" s="1">
         <v>2017</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="22">
         <v>15554602846.85</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="22">
         <v>10557882242.38</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="22">
         <v>10372574413.65</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="24">
         <v>849446000</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="24">
         <v>2069114199</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="24">
         <v>733660143.69</v>
       </c>
-      <c r="W19" s="22">
+      <c r="W19" s="24">
         <v>3930262816.1</v>
       </c>
       <c r="Z19" s="4">
-        <f>SUM(I19:P19)</f>
+        <f t="shared" si="4"/>
         <v>849446000</v>
       </c>
       <c r="AA19" s="4">
-        <f>SUM(Q19:Y19)</f>
+        <f t="shared" si="5"/>
         <v>6733037158.79</v>
       </c>
       <c r="AB19" s="5">
-        <f>(G19+Z19-AA19)</f>
+        <f t="shared" si="6"/>
         <v>4674291083.59</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.525383354040252</v>
       </c>
       <c r="AD19" s="6">
         <v>7231724556.89</v>
       </c>
-      <c r="AE19" s="22">
+      <c r="AE19" s="24">
         <v>7244144221.03</v>
       </c>
       <c r="AF19" s="2">
-        <f>(AE19-AE20)/AE20</f>
+        <f t="shared" si="7"/>
         <v>0.683719974111435</v>
       </c>
-      <c r="AG19" s="22">
+      <c r="AG19" s="24">
         <v>-128343374.78</v>
       </c>
       <c r="AN19" s="2">
-        <f>(AE19+AG19)/(G19+Z19-AA19)</f>
+        <f t="shared" si="8"/>
         <v>1.52232728321764</v>
       </c>
     </row>
@@ -2360,55 +2369,55 @@
       <c r="B20" s="1">
         <v>2016</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="22">
         <v>12129059829.52</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="22">
         <v>8153586694.12</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="22">
         <v>7990926198.4</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="24">
         <v>652078000</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="24">
         <v>1295839436</v>
       </c>
-      <c r="W20" s="22">
+      <c r="W20" s="24">
         <v>4445486663.36</v>
       </c>
       <c r="Z20" s="4">
-        <f>SUM(I20:P20)</f>
+        <f t="shared" si="4"/>
         <v>652078000</v>
       </c>
       <c r="AA20" s="4">
-        <f>SUM(Q20:Y20)</f>
+        <f t="shared" si="5"/>
         <v>5741326099.36</v>
       </c>
       <c r="AB20" s="5">
-        <f>(G20+Z20-AA20)</f>
+        <f t="shared" si="6"/>
         <v>3064338594.76</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.89211868946456</v>
       </c>
       <c r="AD20" s="6">
         <v>5316257642.3</v>
       </c>
-      <c r="AE20" s="22">
+      <c r="AE20" s="24">
         <v>4302463789.95</v>
       </c>
       <c r="AF20" s="2">
-        <f>(AE20-AE21)/AE21</f>
+        <f t="shared" si="7"/>
         <v>0.230118143454922</v>
       </c>
-      <c r="AG20" s="22">
+      <c r="AG20" s="24">
         <v>-142063223.63</v>
       </c>
       <c r="AN20" s="2">
-        <f>(AE20+AG20)/(G20+Z20-AA20)</f>
+        <f t="shared" si="8"/>
         <v>1.35768304894056</v>
       </c>
     </row>
@@ -2417,47 +2426,47 @@
       <c r="B21" s="1">
         <v>2015</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="22">
         <v>12501668046.03</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="22">
         <v>4736060678.29</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="22">
         <v>4598731084.44</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="24">
         <v>450706819.95</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="24">
         <v>49342592.13</v>
       </c>
-      <c r="W21" s="22">
+      <c r="W21" s="24">
         <v>3176463258.75</v>
       </c>
       <c r="Z21" s="4">
-        <f>SUM(I21:P21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA21" s="4">
-        <f>SUM(Q21:Y21)</f>
+        <f t="shared" si="5"/>
         <v>3676512670.83</v>
       </c>
       <c r="AB21" s="5">
-        <f>(G21+Z21-AA21)</f>
+        <f t="shared" si="6"/>
         <v>1059548007.46</v>
       </c>
       <c r="AD21" s="6">
         <v>3967955684.39</v>
       </c>
-      <c r="AE21" s="22">
+      <c r="AE21" s="24">
         <v>3497602090.37</v>
       </c>
-      <c r="AG21" s="22">
+      <c r="AG21" s="24">
         <v>-129330393.9</v>
       </c>
       <c r="AN21" s="2">
-        <f>(AE21+AG21)/(G21+Z21-AA21)</f>
+        <f t="shared" si="8"/>
         <v>3.17897034655804</v>
       </c>
     </row>
@@ -2479,13 +2488,82 @@
         <v>2012</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="1">
+        <v>2012</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A35"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12740"/>
+    <workbookView windowWidth="27260" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -185,16 +185,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +208,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +238,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -234,6 +248,44 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,61 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,19 +415,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,151 +529,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,11 +658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +678,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,36 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -751,124 +751,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,26 +877,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,12 +943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,11 +1348,11 @@
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN21" sqref="AN21"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1420,76 +1414,76 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="25" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="27" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AH1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AI1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="43" t="s">
+      <c r="AM1" s="41" t="s">
         <v>23</v>
       </c>
       <c r="AN1" s="2" t="s">
@@ -1502,74 +1496,74 @@
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="23" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="41"/>
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40">
@@ -1587,31 +1581,31 @@
         <f>(C3-C4)/C4</f>
         <v>0.136217483879853</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>101407289</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>5307487463.86</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>2597344300.25</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>2577599922.5</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="22">
         <v>38500000</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="22">
         <v>23161410.09</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="22">
         <v>379657718.27</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="22">
         <v>1035023511.03</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="22">
         <v>558958299.5</v>
       </c>
       <c r="Z3" s="4">
@@ -1630,14 +1624,14 @@
         <f>(AB3-AB4)/AB4</f>
         <v>0.888539280652637</v>
       </c>
-      <c r="AE3" s="24">
+      <c r="AE3" s="22">
         <v>841201241.94</v>
       </c>
       <c r="AF3" s="2">
         <f>(AE3-AE4)/AE4</f>
         <v>0.446715197438719</v>
       </c>
-      <c r="AG3" s="24">
+      <c r="AG3" s="22">
         <v>14783596.82</v>
       </c>
       <c r="AN3" s="2">
@@ -1661,25 +1655,25 @@
       <c r="E4" s="1">
         <v>69677800</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>3209613710.56</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>2007180656.87</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <v>2007180656.87</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="22">
         <v>5706932.74</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="22">
         <v>100000000</v>
       </c>
-      <c r="U4" s="24">
+      <c r="U4" s="22">
         <v>568074363.31</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="22">
         <v>779840195.09</v>
       </c>
       <c r="Z4" s="4">
@@ -1698,14 +1692,14 @@
         <f>(AB4-AB5)/AB5</f>
         <v>0.920254671725826</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="22">
         <v>581456006.98</v>
       </c>
       <c r="AF4" s="2">
         <f>(AE4-AE5)/AE5</f>
         <v>0.377145008566829</v>
       </c>
-      <c r="AG4" s="24">
+      <c r="AG4" s="22">
         <v>-5615997.1</v>
       </c>
       <c r="AN4" s="2">
@@ -1726,30 +1720,30 @@
         <f>(C5-C6)/C6</f>
         <v>1.1288259725764</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>69677800</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>2432708653.17</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>1689929864.37</v>
       </c>
       <c r="H5" s="1">
         <f>G5</f>
         <v>1689929864.37</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="N5" s="24">
+      <c r="L5" s="22"/>
+      <c r="N5" s="22">
         <v>20000000</v>
       </c>
-      <c r="U5" s="24">
+      <c r="U5" s="22">
         <v>117858210.07</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="22">
         <v>1103701041.03</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="22">
         <v>90000000</v>
       </c>
       <c r="Z5" s="4">
@@ -1768,14 +1762,14 @@
         <f>(AB5-AB6)/AB6</f>
         <v>1.94287777526496</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5" s="22">
         <v>422218432.6</v>
       </c>
       <c r="AF5" s="2">
         <f>(AE5-AE6)/AE6</f>
         <v>0.845884860956732</v>
       </c>
-      <c r="AG5" s="24">
+      <c r="AG5" s="22">
         <v>-3556755.26</v>
       </c>
       <c r="AN5" s="2">
@@ -1796,26 +1790,26 @@
         <f>(C6-C7)/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>51800000</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>849542812.03</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>376395738.7</v>
       </c>
       <c r="H6" s="1">
         <f>G6</f>
         <v>376395738.7</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="22">
         <v>14000000</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="22">
         <v>67000000</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="22">
         <v>322028032.77</v>
       </c>
       <c r="Z6" s="4">
@@ -1834,14 +1828,14 @@
         <f>(AB6-AB7)/AB7</f>
         <v>1.23851987887478</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="22">
         <v>228734977.75</v>
       </c>
       <c r="AF6" s="2">
         <f>(AE6-AE7)/AE7</f>
         <v>0.545729046437287</v>
       </c>
-      <c r="AG6" s="24">
+      <c r="AG6" s="22">
         <v>3345408.95</v>
       </c>
       <c r="AN6" s="2">
@@ -1854,22 +1848,22 @@
       <c r="B7" s="1">
         <v>2018</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>655642978.35</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>260472684.71</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <v>260472684.71</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="22">
         <v>4000000</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="22">
         <v>39000000</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="22">
         <v>243000715.17</v>
       </c>
       <c r="Z7" s="4">
@@ -1888,14 +1882,14 @@
         <f>(AB7-AB8)/AB8</f>
         <v>4.30487724292338</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="22">
         <v>147978701.88</v>
       </c>
       <c r="AF7" s="2">
         <f>(AE7-AE8)/AE8</f>
         <v>0.252672264816477</v>
       </c>
-      <c r="AG7" s="24">
+      <c r="AG7" s="22">
         <v>2226270.2</v>
       </c>
       <c r="AN7" s="2">
@@ -1908,22 +1902,22 @@
       <c r="B8" s="1">
         <v>2017</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>521985587.23</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>188242134.75</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>188242134.75</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="22">
         <v>4000000</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="22">
         <v>30500000</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="22">
         <v>211342819.22</v>
       </c>
       <c r="Z8" s="4">
@@ -1938,10 +1932,10 @@
         <f t="shared" si="2"/>
         <v>11399315.53</v>
       </c>
-      <c r="AE8" s="24">
+      <c r="AE8" s="22">
         <v>118130420.89</v>
       </c>
-      <c r="AG8" s="24">
+      <c r="AG8" s="22">
         <v>2431512.18</v>
       </c>
       <c r="AN8" s="2">
@@ -1988,34 +1982,34 @@
       <c r="B14" s="1">
         <v>2022</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>25238766516.08</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <v>17296017322.93</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <v>16948889697.69</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>742652495.7</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="22">
         <v>12186394.91</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="22">
         <v>1880144644.14</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="22">
         <v>921897223.15</v>
       </c>
-      <c r="U14" s="24">
+      <c r="U14" s="22">
         <v>2788812386.06</v>
       </c>
-      <c r="W14" s="24">
+      <c r="W14" s="22">
         <v>3280167249.76</v>
       </c>
-      <c r="Y14" s="24">
+      <c r="Y14" s="22">
         <v>4657152857.47</v>
       </c>
       <c r="Z14" s="4">
@@ -2034,14 +2028,14 @@
         <f>(AB14-AB15)/AB15</f>
         <v>-0.197825218581472</v>
       </c>
-      <c r="AE14" s="24">
+      <c r="AE14" s="22">
         <v>3506816648.23</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" ref="AF14:AF20" si="7">(AE14-AE15)/AE15</f>
         <v>-0.547216033820277</v>
       </c>
-      <c r="AG14" s="24">
+      <c r="AG14" s="22">
         <v>-109962286.55</v>
       </c>
       <c r="AN14" s="2">
@@ -2054,34 +2048,34 @@
       <c r="B15" s="1">
         <v>2021</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>25555259687.25</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="20">
         <v>18682739495.3</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <v>18379430976.51</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="22">
         <v>812957201.36</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="22">
         <v>20838320.89</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="22">
         <v>1600082971.48</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="22">
         <v>1323030471.62</v>
       </c>
-      <c r="U15" s="24">
+      <c r="U15" s="22">
         <v>3217641031.1</v>
       </c>
-      <c r="W15" s="24">
+      <c r="W15" s="22">
         <v>4295642365.99</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="Y15" s="22">
         <v>3442112702.46</v>
       </c>
       <c r="Z15" s="4">
@@ -2100,17 +2094,17 @@
         <f t="shared" ref="AC15:AC20" si="9">(AB15-AB16)/AB16</f>
         <v>-0.135786566313983</v>
       </c>
-      <c r="AE15" s="24">
+      <c r="AE15" s="22">
         <v>7745010667.71</v>
       </c>
       <c r="AF15" s="2">
         <f t="shared" si="7"/>
         <v>0.524596689325575</v>
       </c>
-      <c r="AG15" s="24">
+      <c r="AG15" s="22">
         <v>-168683642.15</v>
       </c>
-      <c r="AN15" s="44">
+      <c r="AN15" s="42">
         <f t="shared" si="8"/>
         <v>1.34379084650985</v>
       </c>
@@ -2120,31 +2114,31 @@
       <c r="B16" s="1">
         <v>2020</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="20">
         <v>21646165070.03</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="20">
         <v>17272419323.58</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <v>17016986250.45</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="22">
         <v>50310738.14</v>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="22">
         <v>1372869799.62</v>
       </c>
-      <c r="T16" s="24">
+      <c r="T16" s="22">
         <v>1078844317.74</v>
       </c>
-      <c r="U16" s="24">
+      <c r="U16" s="22">
         <v>2140888805.9</v>
       </c>
-      <c r="W16" s="24">
+      <c r="W16" s="22">
         <v>4730286378.96</v>
       </c>
-      <c r="Y16" s="24">
+      <c r="Y16" s="22">
         <v>1475959904.22</v>
       </c>
       <c r="Z16" s="4">
@@ -2163,14 +2157,14 @@
         <f t="shared" si="9"/>
         <v>0.612733810949541</v>
       </c>
-      <c r="AE16" s="24">
+      <c r="AE16" s="22">
         <v>5080039017.49</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" si="7"/>
         <v>1.147085932145</v>
       </c>
-      <c r="AG16" s="24">
+      <c r="AG16" s="22">
         <v>-126605815.87</v>
       </c>
       <c r="AN16" s="2">
@@ -2183,31 +2177,31 @@
       <c r="B17" s="1">
         <v>2019</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="20">
         <v>18687079233.62</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="20">
         <v>14006351565.51</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="20">
         <v>13778408776.65</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="22">
         <v>50609581.06</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="22">
         <v>1117250673.84</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="22">
         <v>849464175.16</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="22">
         <v>1842510202.69</v>
       </c>
-      <c r="W17" s="24">
+      <c r="W17" s="22">
         <v>3860521939.04</v>
       </c>
-      <c r="Y17" s="24">
+      <c r="Y17" s="22">
         <v>2341983125.78</v>
       </c>
       <c r="Z17" s="4">
@@ -2226,17 +2220,17 @@
         <f t="shared" si="9"/>
         <v>-0.492517335142773</v>
       </c>
-      <c r="AE17" s="24">
+      <c r="AE17" s="22">
         <v>2366015696.64</v>
       </c>
       <c r="AF17" s="2">
         <f t="shared" si="7"/>
         <v>-0.659727058228938</v>
       </c>
-      <c r="AG17" s="24">
+      <c r="AG17" s="22">
         <v>-19689880.97</v>
       </c>
-      <c r="AN17" s="44">
+      <c r="AN17" s="42">
         <f t="shared" si="8"/>
         <v>0.580022697896491</v>
       </c>
@@ -2246,28 +2240,28 @@
       <c r="B18" s="1">
         <v>2018</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <v>19021510376.18</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <v>14397984457.52</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <v>14201141091.65</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <v>892216000</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="22">
         <v>47455135.66</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="22">
         <v>2902358986.81</v>
       </c>
-      <c r="S18" s="24">
+      <c r="S18" s="22">
         <v>792534760.28</v>
       </c>
-      <c r="W18" s="24">
+      <c r="W18" s="22">
         <v>3671590986.1</v>
       </c>
       <c r="Z18" s="4">
@@ -2289,14 +2283,14 @@
       <c r="AD18" s="6">
         <v>6941932267.09</v>
       </c>
-      <c r="AE18" s="24">
+      <c r="AE18" s="22">
         <v>6953287805.74</v>
       </c>
       <c r="AF18" s="2">
         <f t="shared" si="7"/>
         <v>-0.0401505555957367</v>
       </c>
-      <c r="AG18" s="24">
+      <c r="AG18" s="22">
         <v>-93655308.74</v>
       </c>
       <c r="AN18" s="2">
@@ -2309,25 +2303,25 @@
       <c r="B19" s="1">
         <v>2017</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="20">
         <v>15554602846.85</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <v>10557882242.38</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>10372574413.65</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <v>849446000</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="22">
         <v>2069114199</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="22">
         <v>733660143.69</v>
       </c>
-      <c r="W19" s="24">
+      <c r="W19" s="22">
         <v>3930262816.1</v>
       </c>
       <c r="Z19" s="4">
@@ -2349,14 +2343,14 @@
       <c r="AD19" s="6">
         <v>7231724556.89</v>
       </c>
-      <c r="AE19" s="24">
+      <c r="AE19" s="22">
         <v>7244144221.03</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="7"/>
         <v>0.683719974111435</v>
       </c>
-      <c r="AG19" s="24">
+      <c r="AG19" s="22">
         <v>-128343374.78</v>
       </c>
       <c r="AN19" s="2">
@@ -2369,22 +2363,22 @@
       <c r="B20" s="1">
         <v>2016</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="20">
         <v>12129059829.52</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="20">
         <v>8153586694.12</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="20">
         <v>7990926198.4</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="22">
         <v>652078000</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="22">
         <v>1295839436</v>
       </c>
-      <c r="W20" s="24">
+      <c r="W20" s="22">
         <v>4445486663.36</v>
       </c>
       <c r="Z20" s="4">
@@ -2406,14 +2400,14 @@
       <c r="AD20" s="6">
         <v>5316257642.3</v>
       </c>
-      <c r="AE20" s="24">
+      <c r="AE20" s="22">
         <v>4302463789.95</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="7"/>
         <v>0.230118143454922</v>
       </c>
-      <c r="AG20" s="24">
+      <c r="AG20" s="22">
         <v>-142063223.63</v>
       </c>
       <c r="AN20" s="2">
@@ -2426,22 +2420,22 @@
       <c r="B21" s="1">
         <v>2015</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="20">
         <v>12501668046.03</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="20">
         <v>4736060678.29</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="20">
         <v>4598731084.44</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="22">
         <v>450706819.95</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="22">
         <v>49342592.13</v>
       </c>
-      <c r="W21" s="24">
+      <c r="W21" s="22">
         <v>3176463258.75</v>
       </c>
       <c r="Z21" s="4">
@@ -2459,10 +2453,10 @@
       <c r="AD21" s="6">
         <v>3967955684.39</v>
       </c>
-      <c r="AE21" s="24">
+      <c r="AE21" s="22">
         <v>3497602090.37</v>
       </c>
-      <c r="AG21" s="24">
+      <c r="AG21" s="22">
         <v>-129330393.9</v>
       </c>
       <c r="AN21" s="2">
@@ -2489,7 +2483,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="1">
@@ -2497,61 +2491,61 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="1">
         <v>2018</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="1">
         <v>2017</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="1">
         <v>2016</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="1">
         <v>2015</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="1">
         <v>2013</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="1">
         <v>2012</v>
       </c>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27260" windowHeight="13360"/>
+    <workbookView windowWidth="27240" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>名称</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>天地在线</t>
+  </si>
+  <si>
+    <t>新媒股份</t>
+  </si>
+  <si>
+    <t>吉比特</t>
+  </si>
+  <si>
+    <t>平治信息</t>
+  </si>
+  <si>
+    <t>卓创资讯</t>
+  </si>
+  <si>
+    <t>中信出版</t>
   </si>
 </sst>
 </file>
@@ -158,8 +173,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -179,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,10 +207,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,38 +223,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -254,44 +270,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -300,10 +278,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,6 +299,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -415,175 +430,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,23 +667,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,23 +676,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,21 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -746,153 +731,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,14 +1360,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2550,6 +2565,31 @@
         <v>2012</v>
       </c>
     </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="I1:P1"/>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13360"/>
+    <workbookView windowWidth="27240" windowHeight="12760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>名称</t>
   </si>
@@ -90,7 +90,10 @@
     <t>无形资产</t>
   </si>
   <si>
-    <t>投入资本回报率</t>
+    <t>经营利润占总投入资本的比值</t>
+  </si>
+  <si>
+    <t>经营利润占经营资本的比值</t>
   </si>
   <si>
     <t>保险合同准备金</t>
@@ -173,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -194,9 +197,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,17 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,38 +250,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,38 +272,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,12 +294,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -430,31 +433,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,19 +523,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,109 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,32 +670,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +692,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,28 +735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,152 +769,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +934,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1">
@@ -1036,6 +1042,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,14 +1375,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1410,180 +1425,185 @@
     <col min="37" max="37" width="11.5384615384615" style="3" customWidth="1"/>
     <col min="38" max="38" width="16.3846153846154" style="3" customWidth="1"/>
     <col min="39" max="39" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="40" max="40" width="17.6153846153846" style="7" customWidth="1"/>
+    <col min="40" max="40" width="33.3076923076923" style="7" customWidth="1"/>
+    <col min="41" max="41" width="29.6923076923077" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:41">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="23" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="25" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AH1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AK1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AL1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AM1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="21" t="s">
+      <c r="AO1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="21" t="s">
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="N2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="O2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="Q2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="R2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="S2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="T2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="U2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="V2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="W2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="X2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="2"/>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="13" t="s">
+      <c r="Y2" s="25" t="s">
         <v>42</v>
+      </c>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="2"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>2022</v>
@@ -1596,31 +1616,31 @@
         <f>(C3-C4)/C4</f>
         <v>0.136217483879853</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="20">
         <v>101407289</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="21">
         <v>5307487463.86</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="21">
         <v>2597344300.25</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="21">
         <v>2577599922.5</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="23">
         <v>38500000</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="23">
         <v>23161410.09</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="23">
         <v>379657718.27</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="23">
         <v>1035023511.03</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="23">
         <v>558958299.5</v>
       </c>
       <c r="Z3" s="4">
@@ -1639,23 +1659,27 @@
         <f>(AB3-AB4)/AB4</f>
         <v>0.888539280652637</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="23">
         <v>841201241.94</v>
       </c>
       <c r="AF3" s="2">
         <f>(AE3-AE4)/AE4</f>
         <v>0.446715197438719</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="23">
         <v>14783596.82</v>
       </c>
-      <c r="AN3" s="2">
-        <f t="shared" ref="AN3:AN8" si="3">(AE3+AG3)/(G3+Z3-AA3)</f>
+      <c r="AN3" s="7">
+        <f>(AE3+AG3)/(G3+Z3)</f>
+        <v>0.281697811840767</v>
+      </c>
+      <c r="AO3" s="2">
+        <f>(AE3+AG3)/(G3+Z3-AA3)</f>
         <v>0.592507600323464</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:41">
+      <c r="A4" s="15"/>
       <c r="B4" s="1">
         <v>2021</v>
       </c>
@@ -1670,25 +1694,25 @@
       <c r="E4" s="1">
         <v>69677800</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="21">
         <v>3209613710.56</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="21">
         <v>2007180656.87</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="21">
         <v>2007180656.87</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="23">
         <v>5706932.74</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="23">
         <v>100000000</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="23">
         <v>568074363.31</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="23">
         <v>779840195.09</v>
       </c>
       <c r="Z4" s="4">
@@ -1707,23 +1731,27 @@
         <f>(AB4-AB5)/AB5</f>
         <v>0.920254671725826</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="23">
         <v>581456006.98</v>
       </c>
       <c r="AF4" s="2">
         <f>(AE4-AE5)/AE5</f>
         <v>0.377145008566829</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AG4" s="23">
         <v>-5615997.1</v>
       </c>
-      <c r="AN4" s="2">
-        <f t="shared" si="3"/>
+      <c r="AN4" s="7">
+        <f t="shared" ref="AN4:AN28" si="3">(AE4+AG4)/(G4+Z4)</f>
+        <v>0.272536983373682</v>
+      </c>
+      <c r="AO4" s="2">
+        <f t="shared" ref="AO3:AO8" si="4">(AE4+AG4)/(G4+Z4-AA4)</f>
         <v>0.752758576297993</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:41">
+      <c r="A5" s="15"/>
       <c r="B5" s="1">
         <v>2020</v>
       </c>
@@ -1735,30 +1763,30 @@
         <f>(C5-C6)/C6</f>
         <v>1.1288259725764</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="20">
         <v>69677800</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>2432708653.17</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="21">
         <v>1689929864.37</v>
       </c>
       <c r="H5" s="1">
         <f>G5</f>
         <v>1689929864.37</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="N5" s="22">
+      <c r="L5" s="23"/>
+      <c r="N5" s="23">
         <v>20000000</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="23">
         <v>117858210.07</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="23">
         <v>1103701041.03</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="23">
         <v>90000000</v>
       </c>
       <c r="Z5" s="4">
@@ -1777,23 +1805,27 @@
         <f>(AB5-AB6)/AB6</f>
         <v>1.94287777526496</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="23">
         <v>422218432.6</v>
       </c>
       <c r="AF5" s="2">
         <f>(AE5-AE6)/AE6</f>
         <v>0.845884860956732</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5" s="23">
         <v>-3556755.26</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5" s="7">
         <f t="shared" si="3"/>
+        <v>0.244841432425797</v>
+      </c>
+      <c r="AO5" s="2">
+        <f t="shared" si="4"/>
         <v>1.05093514278938</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:41">
+      <c r="A6" s="15"/>
       <c r="B6" s="1">
         <v>2019</v>
       </c>
@@ -1805,26 +1837,26 @@
         <f>(C6-C7)/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="20">
         <v>51800000</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>849542812.03</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="21">
         <v>376395738.7</v>
       </c>
       <c r="H6" s="1">
         <f>G6</f>
         <v>376395738.7</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="23">
         <v>14000000</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="23">
         <v>67000000</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="23">
         <v>322028032.77</v>
       </c>
       <c r="Z6" s="4">
@@ -1843,42 +1875,46 @@
         <f>(AB6-AB7)/AB7</f>
         <v>1.23851987887478</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="23">
         <v>228734977.75</v>
       </c>
       <c r="AF6" s="2">
         <f>(AE6-AE7)/AE7</f>
         <v>0.545729046437287</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="23">
         <v>3345408.95</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6" s="7">
         <f t="shared" si="3"/>
+        <v>0.507395165857062</v>
+      </c>
+      <c r="AO6" s="2">
+        <f t="shared" si="4"/>
         <v>1.71444426206064</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:41">
+      <c r="A7" s="15"/>
       <c r="B7" s="1">
         <v>2018</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>655642978.35</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="21">
         <v>260472684.71</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="21">
         <v>260472684.71</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="23">
         <v>4000000</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="23">
         <v>39000000</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="23">
         <v>243000715.17</v>
       </c>
       <c r="Z7" s="4">
@@ -1897,42 +1933,46 @@
         <f>(AB7-AB8)/AB8</f>
         <v>4.30487724292338</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="23">
         <v>147978701.88</v>
       </c>
       <c r="AF7" s="2">
         <f>(AE7-AE8)/AE8</f>
         <v>0.252672264816477</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="23">
         <v>2226270.2</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7" s="7">
         <f t="shared" si="3"/>
+        <v>0.494953844770367</v>
+      </c>
+      <c r="AO7" s="2">
+        <f t="shared" si="4"/>
         <v>2.48387762499855</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:41">
+      <c r="A8" s="15"/>
       <c r="B8" s="1">
         <v>2017</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>521985587.23</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="21">
         <v>188242134.75</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="21">
         <v>188242134.75</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="23">
         <v>4000000</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="23">
         <v>30500000</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="23">
         <v>211342819.22</v>
       </c>
       <c r="Z8" s="4">
@@ -1947,651 +1987,783 @@
         <f t="shared" si="2"/>
         <v>11399315.53</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="23">
         <v>118130420.89</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8" s="23">
         <v>2431512.18</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AN8" s="7">
         <f t="shared" si="3"/>
+        <v>0.541262357951788</v>
+      </c>
+      <c r="AO8" s="2">
+        <f t="shared" si="4"/>
         <v>10.5762431746637</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:40">
+      <c r="A9" s="15"/>
       <c r="B9" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14"/>
+      <c r="AN9" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="15"/>
       <c r="B10" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14"/>
+      <c r="AN10" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="15"/>
       <c r="B11" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14"/>
+      <c r="AN11" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="15"/>
       <c r="B12" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="13" spans="1:36">
-      <c r="A13" s="15"/>
+      <c r="AN12" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="16"/>
       <c r="B13" s="1">
         <v>2012</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AJ13" s="2"/>
-    </row>
-    <row r="14" spans="1:40">
-      <c r="A14" s="13" t="s">
-        <v>43</v>
+      <c r="AN13" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="21">
         <v>25238766516.08</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="21">
         <v>17296017322.93</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="21">
         <v>16948889697.69</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="23">
         <v>742652495.7</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="23">
         <v>12186394.91</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="23">
         <v>1880144644.14</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="23">
         <v>921897223.15</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="23">
         <v>2788812386.06</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="23">
         <v>3280167249.76</v>
       </c>
-      <c r="Y14" s="22">
+      <c r="Y14" s="23">
         <v>4657152857.47</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" ref="Z14:Z21" si="4">SUM(I14:P14)</f>
+        <f t="shared" ref="Z14:Z21" si="5">SUM(I14:P14)</f>
         <v>754838890.61</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" ref="AA14:AA21" si="5">SUM(Q14:Y14)</f>
+        <f t="shared" ref="AA14:AA21" si="6">SUM(Q14:Y14)</f>
         <v>13528174360.58</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" ref="AB14:AB21" si="6">(G14+Z14-AA14)</f>
+        <f t="shared" ref="AB14:AB21" si="7">(G14+Z14-AA14)</f>
         <v>4522681852.96</v>
       </c>
       <c r="AC14" s="2">
         <f>(AB14-AB15)/AB15</f>
         <v>-0.197825218581472</v>
       </c>
-      <c r="AE14" s="22">
+      <c r="AE14" s="23">
         <v>3506816648.23</v>
       </c>
       <c r="AF14" s="2">
-        <f t="shared" ref="AF14:AF20" si="7">(AE14-AE15)/AE15</f>
+        <f t="shared" ref="AF14:AF20" si="8">(AE14-AE15)/AE15</f>
         <v>-0.547216033820277</v>
       </c>
-      <c r="AG14" s="22">
+      <c r="AG14" s="23">
         <v>-109962286.55</v>
       </c>
-      <c r="AN14" s="2">
-        <f t="shared" ref="AN14:AN21" si="8">(AE14+AG14)/(G14+Z14-AA14)</f>
+      <c r="AN14" s="45">
+        <f t="shared" si="3"/>
+        <v>0.188182450820921</v>
+      </c>
+      <c r="AO14" s="2">
+        <f t="shared" ref="AO14:AO21" si="9">(AE14+AG14)/(G14+Z14-AA14)</f>
         <v>0.751070818624315</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:41">
+      <c r="A15" s="15"/>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="21">
         <v>25555259687.25</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="21">
         <v>18682739495.3</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="21">
         <v>18379430976.51</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="23">
         <v>812957201.36</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="23">
         <v>20838320.89</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="23">
         <v>1600082971.48</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="23">
         <v>1323030471.62</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="23">
         <v>3217641031.1</v>
       </c>
-      <c r="W15" s="22">
+      <c r="W15" s="23">
         <v>4295642365.99</v>
       </c>
-      <c r="Y15" s="22">
+      <c r="Y15" s="23">
         <v>3442112702.46</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>833795522.25</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13878509542.65</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5638025474.9</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" ref="AC15:AC20" si="9">(AB15-AB16)/AB16</f>
+        <f t="shared" ref="AC15:AC20" si="10">(AB15-AB16)/AB16</f>
         <v>-0.135786566313983</v>
       </c>
-      <c r="AE15" s="22">
+      <c r="AE15" s="23">
         <v>7745010667.71</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.524596689325575</v>
       </c>
-      <c r="AG15" s="22">
+      <c r="AG15" s="23">
         <v>-168683642.15</v>
       </c>
-      <c r="AN15" s="42">
-        <f t="shared" si="8"/>
+      <c r="AN15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.388200416659365</v>
+      </c>
+      <c r="AO15" s="46">
+        <f t="shared" si="9"/>
         <v>1.34379084650985</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:41">
+      <c r="A16" s="15"/>
       <c r="B16" s="1">
         <v>2020</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="21">
         <v>21646165070.03</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="21">
         <v>17272419323.58</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="21">
         <v>17016986250.45</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="23">
         <v>50310738.14</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="23">
         <v>1372869799.62</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="23">
         <v>1078844317.74</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="23">
         <v>2140888805.9</v>
       </c>
-      <c r="W16" s="22">
+      <c r="W16" s="23">
         <v>4730286378.96</v>
       </c>
-      <c r="Y16" s="22">
+      <c r="Y16" s="23">
         <v>1475959904.22</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50310738.14</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10798849206.44</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6523880855.28</v>
       </c>
       <c r="AC16" s="2">
+        <f t="shared" si="10"/>
+        <v>0.612733810949541</v>
+      </c>
+      <c r="AE16" s="23">
+        <v>5080039017.49</v>
+      </c>
+      <c r="AF16" s="2">
+        <f t="shared" si="8"/>
+        <v>1.147085932145</v>
+      </c>
+      <c r="AG16" s="23">
+        <v>-126605815.87</v>
+      </c>
+      <c r="AN16" s="7">
+        <f t="shared" si="3"/>
+        <v>0.285949915744872</v>
+      </c>
+      <c r="AO16" s="2">
         <f t="shared" si="9"/>
-        <v>0.612733810949541</v>
-      </c>
-      <c r="AE16" s="22">
-        <v>5080039017.49</v>
-      </c>
-      <c r="AF16" s="2">
-        <f t="shared" si="7"/>
-        <v>1.147085932145</v>
-      </c>
-      <c r="AG16" s="22">
-        <v>-126605815.87</v>
-      </c>
-      <c r="AN16" s="2">
-        <f t="shared" si="8"/>
         <v>0.759277079318672</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:41">
+      <c r="A17" s="15"/>
       <c r="B17" s="1">
         <v>2019</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="21">
         <v>18687079233.62</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="21">
         <v>14006351565.51</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="21">
         <v>13778408776.65</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="23">
         <v>50609581.06</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="23">
         <v>1117250673.84</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="23">
         <v>849464175.16</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="23">
         <v>1842510202.69</v>
       </c>
-      <c r="W17" s="22">
+      <c r="W17" s="23">
         <v>3860521939.04</v>
       </c>
-      <c r="Y17" s="22">
+      <c r="Y17" s="23">
         <v>2341983125.78</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50609581.06</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10011730116.51</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4045231030.06</v>
       </c>
       <c r="AC17" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.492517335142773</v>
+      </c>
+      <c r="AE17" s="23">
+        <v>2366015696.64</v>
+      </c>
+      <c r="AF17" s="2">
+        <f t="shared" si="8"/>
+        <v>-0.659727058228938</v>
+      </c>
+      <c r="AG17" s="23">
+        <v>-19689880.97</v>
+      </c>
+      <c r="AN17" s="45">
+        <f t="shared" si="3"/>
+        <v>0.166915579491555</v>
+      </c>
+      <c r="AO17" s="46">
         <f t="shared" si="9"/>
-        <v>-0.492517335142773</v>
-      </c>
-      <c r="AE17" s="22">
-        <v>2366015696.64</v>
-      </c>
-      <c r="AF17" s="2">
-        <f t="shared" si="7"/>
-        <v>-0.659727058228938</v>
-      </c>
-      <c r="AG17" s="22">
-        <v>-19689880.97</v>
-      </c>
-      <c r="AN17" s="42">
-        <f t="shared" si="8"/>
         <v>0.580022697896491</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:41">
+      <c r="A18" s="15"/>
       <c r="B18" s="1">
         <v>2018</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="21">
         <v>19021510376.18</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="21">
         <v>14397984457.52</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="21">
         <v>14201141091.65</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="23">
         <v>892216000</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="23">
         <v>47455135.66</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="23">
         <v>2902358986.81</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="23">
         <v>792534760.28</v>
       </c>
-      <c r="W18" s="22">
+      <c r="W18" s="23">
         <v>3671590986.1</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>939671135.66</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7366484733.19</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7971170859.99</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.705321880354078</v>
       </c>
       <c r="AD18" s="6">
         <v>6941932267.09</v>
       </c>
-      <c r="AE18" s="22">
+      <c r="AE18" s="23">
         <v>6953287805.74</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.0401505555957367</v>
       </c>
-      <c r="AG18" s="22">
+      <c r="AG18" s="23">
         <v>-93655308.74</v>
       </c>
-      <c r="AN18" s="2">
-        <f t="shared" si="8"/>
+      <c r="AN18" s="7">
+        <f t="shared" si="3"/>
+        <v>0.447241265480637</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="9"/>
         <v>0.860555195401822</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:41">
+      <c r="A19" s="15"/>
       <c r="B19" s="1">
         <v>2017</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="21">
         <v>15554602846.85</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="21">
         <v>10557882242.38</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="21">
         <v>10372574413.65</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="23">
         <v>849446000</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="23">
         <v>2069114199</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="23">
         <v>733660143.69</v>
       </c>
-      <c r="W19" s="22">
+      <c r="W19" s="23">
         <v>3930262816.1</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>849446000</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6733037158.79</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4674291083.59</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.525383354040252</v>
       </c>
       <c r="AD19" s="6">
         <v>7231724556.89</v>
       </c>
-      <c r="AE19" s="22">
+      <c r="AE19" s="23">
         <v>7244144221.03</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.683719974111435</v>
       </c>
-      <c r="AG19" s="22">
+      <c r="AG19" s="23">
         <v>-128343374.78</v>
       </c>
-      <c r="AN19" s="2">
-        <f t="shared" si="8"/>
+      <c r="AN19" s="7">
+        <f t="shared" si="3"/>
+        <v>0.623792065508705</v>
+      </c>
+      <c r="AO19" s="2">
+        <f t="shared" si="9"/>
         <v>1.52232728321764</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:41">
+      <c r="A20" s="15"/>
       <c r="B20" s="1">
         <v>2016</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="21">
         <v>12129059829.52</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="21">
         <v>8153586694.12</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="21">
         <v>7990926198.4</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="23">
         <v>652078000</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="23">
         <v>1295839436</v>
       </c>
-      <c r="W20" s="22">
+      <c r="W20" s="23">
         <v>4445486663.36</v>
       </c>
       <c r="Z20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>652078000</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5741326099.36</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3064338594.76</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.89211868946456</v>
       </c>
       <c r="AD20" s="6">
         <v>5316257642.3</v>
       </c>
-      <c r="AE20" s="22">
+      <c r="AE20" s="23">
         <v>4302463789.95</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.230118143454922</v>
       </c>
-      <c r="AG20" s="22">
+      <c r="AG20" s="23">
         <v>-142063223.63</v>
       </c>
-      <c r="AN20" s="2">
-        <f t="shared" si="8"/>
+      <c r="AN20" s="7">
+        <f t="shared" si="3"/>
+        <v>0.472468656352327</v>
+      </c>
+      <c r="AO20" s="2">
+        <f t="shared" si="9"/>
         <v>1.35768304894056</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:41">
+      <c r="A21" s="15"/>
       <c r="B21" s="1">
         <v>2015</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="21">
         <v>12501668046.03</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="21">
         <v>4736060678.29</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="21">
         <v>4598731084.44</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="23">
         <v>450706819.95</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="23">
         <v>49342592.13</v>
       </c>
-      <c r="W21" s="22">
+      <c r="W21" s="23">
         <v>3176463258.75</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3676512670.83</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1059548007.46</v>
       </c>
       <c r="AD21" s="6">
         <v>3967955684.39</v>
       </c>
-      <c r="AE21" s="22">
+      <c r="AE21" s="23">
         <v>3497602090.37</v>
       </c>
-      <c r="AG21" s="22">
+      <c r="AG21" s="23">
         <v>-129330393.9</v>
       </c>
-      <c r="AN21" s="2">
-        <f t="shared" si="8"/>
+      <c r="AN21" s="7">
+        <f t="shared" si="3"/>
+        <v>0.711196905037574</v>
+      </c>
+      <c r="AO21" s="2">
+        <f t="shared" si="9"/>
         <v>3.17897034655804</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:40">
+      <c r="A22" s="15"/>
       <c r="B22" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14"/>
+      <c r="AN22" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="15"/>
       <c r="B23" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="15"/>
+      <c r="AN23" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="16"/>
       <c r="B24" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
-        <v>44</v>
+      <c r="AN24" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14"/>
+      <c r="AN25" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" s="15"/>
       <c r="B26" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="14"/>
+      <c r="AN26" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" s="15"/>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="14"/>
+      <c r="AN27" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
+      <c r="A28" s="15"/>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="14"/>
+      <c r="AN28" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29" s="15"/>
       <c r="B29" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="14"/>
+      <c r="AN29" s="7" t="e">
+        <f t="shared" ref="AN29:AN40" si="11">(AE29+AG29)/(G29+Z29)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30" s="15"/>
       <c r="B30" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="14"/>
+      <c r="AN30" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31" s="15"/>
       <c r="B31" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="14"/>
+      <c r="AN31" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
+      <c r="A32" s="15"/>
       <c r="B32" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="14"/>
+      <c r="AN32" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
+      <c r="A33" s="15"/>
       <c r="B33" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14"/>
+      <c r="AN33" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="A34" s="15"/>
       <c r="B34" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="14"/>
+      <c r="AN34" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
+      <c r="A35" s="15"/>
       <c r="B35" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="AN35" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="AN36" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="AN37" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="AN38" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="AN39" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AN40" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="A1:A2"/>
@@ -2620,6 +2792,7 @@
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AO2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12760"/>
+    <workbookView windowWidth="27180" windowHeight="13360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="每股收益" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>名称</t>
   </si>
@@ -169,20 +170,138 @@
   </si>
   <si>
     <t>中信出版</t>
+  </si>
+  <si>
+    <t>年度</t>
+  </si>
+  <si>
+    <t>归属母公司所有者权益</t>
+  </si>
+  <si>
+    <t>营业收入</t>
+  </si>
+  <si>
+    <t>营业收入同比增长率</t>
+  </si>
+  <si>
+    <t>净利润</t>
+  </si>
+  <si>
+    <t>归母净利润</t>
+  </si>
+  <si>
+    <t>净经营现金流量</t>
+  </si>
+  <si>
+    <t>净经营现金流量同比增长率</t>
+  </si>
+  <si>
+    <t>子公司</t>
+  </si>
+  <si>
+    <t>折旧摊销</t>
+  </si>
+  <si>
+    <t>股份数量</t>
+  </si>
+  <si>
+    <t>股份数量的同比增加率</t>
+  </si>
+  <si>
+    <t>每股收益</t>
+  </si>
+  <si>
+    <t>每股股东盈余</t>
+  </si>
+  <si>
+    <t>采用已使用的平均折旧的每股股东盈余</t>
+  </si>
+  <si>
+    <t>扣除非经常收益的股东盈余</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>存款及应收款项的利息收入</t>
+  </si>
+  <si>
+    <t>净汇兑收益</t>
+  </si>
+  <si>
+    <t>交易性金融资产处置取得的投资收益</t>
+  </si>
+  <si>
+    <t>交易性金融资产公允价值变动收益</t>
+  </si>
+  <si>
+    <t>处置可供出售金融资产取得的投资收益</t>
+  </si>
+  <si>
+    <t>固定资产的处置收益</t>
+  </si>
+  <si>
+    <t>与资产相关的政府补助</t>
+  </si>
+  <si>
+    <t>与收益相关的政府补助</t>
+  </si>
+  <si>
+    <t>存货跌价损失及合同履约成本减值损失</t>
+  </si>
+  <si>
+    <t>商誉减值损失</t>
+  </si>
+  <si>
+    <t>应收账款坏账损失</t>
+  </si>
+  <si>
+    <t>应收账款减值损失</t>
+  </si>
+  <si>
+    <t>固定资产折旧、油气资产折耗、生产性生物资产折旧</t>
+  </si>
+  <si>
+    <t>使用权资产折旧</t>
+  </si>
+  <si>
+    <t>无形资产摊销</t>
+  </si>
+  <si>
+    <t>长期待摊费用摊销</t>
+  </si>
+  <si>
+    <t>总折旧摊销</t>
+  </si>
+  <si>
+    <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -212,14 +331,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -227,15 +338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,69 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -327,7 +369,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,13 +420,57 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -439,7 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +582,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,152 +730,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -659,6 +784,54 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -678,11 +851,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,7 +862,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,8 +884,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -769,158 +942,374 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,14 +1325,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,7 +1343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -969,64 +1352,58 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,16 +1421,16 @@
     <xf numFmtId="44" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="15" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="15" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="16" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="16" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:AO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1387,1377 +1764,1377 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.23076923076923" style="1"/>
-    <col min="3" max="3" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1538461538462" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.2307692307692" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7692307692308" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7692307692308" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.4615384615385" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.4615384615385" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.7692307692308" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.5384615384615" style="3" customWidth="1"/>
-    <col min="15" max="15" width="52.6923076923077" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.3846153846154" style="3" customWidth="1"/>
-    <col min="17" max="17" width="21.2307692307692" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.7692307692308" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.3846153846154" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.2307692307692" style="3" customWidth="1"/>
-    <col min="21" max="21" width="23.6153846153846" style="3" customWidth="1"/>
-    <col min="22" max="22" width="16.3846153846154" style="3" customWidth="1"/>
-    <col min="23" max="23" width="14.5384615384615" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="25" max="25" width="18.7692307692308" style="3" customWidth="1"/>
-    <col min="26" max="26" width="16.3846153846154" style="4" customWidth="1"/>
-    <col min="27" max="27" width="21.2307692307692" style="4" customWidth="1"/>
-    <col min="28" max="28" width="18.7692307692308" style="5" customWidth="1"/>
-    <col min="29" max="29" width="18.7692307692308" style="2" customWidth="1"/>
-    <col min="30" max="30" width="18.7692307692308" style="6" customWidth="1"/>
-    <col min="31" max="31" width="16.2307692307692" style="3" customWidth="1"/>
-    <col min="32" max="32" width="17.6153846153846" style="2" customWidth="1"/>
-    <col min="33" max="33" width="15.3076923076923" style="3" customWidth="1"/>
-    <col min="34" max="34" width="13.9230769230769" style="3" customWidth="1"/>
-    <col min="35" max="35" width="9.23076923076923" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.9230769230769" style="3" customWidth="1"/>
-    <col min="37" max="37" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="38" max="38" width="16.3846153846154" style="3" customWidth="1"/>
-    <col min="39" max="39" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="40" max="40" width="33.3076923076923" style="7" customWidth="1"/>
-    <col min="41" max="41" width="29.6923076923077" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.3076923076923" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.23076923076923" style="14"/>
+    <col min="3" max="3" width="15.1538461538462" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.1538461538462" style="74" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="14" customWidth="1"/>
+    <col min="6" max="7" width="16.2307692307692" style="14" customWidth="1"/>
+    <col min="8" max="8" width="18.7692307692308" style="14" customWidth="1"/>
+    <col min="9" max="9" width="18.7692307692308" style="75" customWidth="1"/>
+    <col min="10" max="10" width="13.4615384615385" style="75" customWidth="1"/>
+    <col min="11" max="11" width="11.5384615384615" style="75" customWidth="1"/>
+    <col min="12" max="12" width="13.4615384615385" style="75" customWidth="1"/>
+    <col min="13" max="13" width="18.7692307692308" style="75" customWidth="1"/>
+    <col min="14" max="14" width="14.5384615384615" style="75" customWidth="1"/>
+    <col min="15" max="15" width="52.6923076923077" style="75" customWidth="1"/>
+    <col min="16" max="16" width="16.3846153846154" style="75" customWidth="1"/>
+    <col min="17" max="17" width="21.2307692307692" style="75" customWidth="1"/>
+    <col min="18" max="18" width="18.7692307692308" style="75" customWidth="1"/>
+    <col min="19" max="19" width="16.3846153846154" style="75" customWidth="1"/>
+    <col min="20" max="20" width="21.2307692307692" style="75" customWidth="1"/>
+    <col min="21" max="21" width="23.6153846153846" style="75" customWidth="1"/>
+    <col min="22" max="22" width="16.3846153846154" style="75" customWidth="1"/>
+    <col min="23" max="23" width="14.5384615384615" style="75" customWidth="1"/>
+    <col min="24" max="24" width="11.5384615384615" style="75" customWidth="1"/>
+    <col min="25" max="25" width="18.7692307692308" style="75" customWidth="1"/>
+    <col min="26" max="26" width="16.3846153846154" style="76" customWidth="1"/>
+    <col min="27" max="27" width="21.2307692307692" style="76" customWidth="1"/>
+    <col min="28" max="28" width="18.7692307692308" style="77" customWidth="1"/>
+    <col min="29" max="29" width="18.7692307692308" style="74" customWidth="1"/>
+    <col min="30" max="30" width="18.7692307692308" style="78" customWidth="1"/>
+    <col min="31" max="31" width="16.2307692307692" style="75" customWidth="1"/>
+    <col min="32" max="32" width="17.6153846153846" style="74" customWidth="1"/>
+    <col min="33" max="33" width="15.3076923076923" style="75" customWidth="1"/>
+    <col min="34" max="34" width="13.9230769230769" style="75" customWidth="1"/>
+    <col min="35" max="35" width="9.23076923076923" style="75" customWidth="1"/>
+    <col min="36" max="36" width="13.9230769230769" style="75" customWidth="1"/>
+    <col min="37" max="37" width="11.5384615384615" style="75" customWidth="1"/>
+    <col min="38" max="38" width="16.3846153846154" style="75" customWidth="1"/>
+    <col min="39" max="39" width="11.5384615384615" style="75" customWidth="1"/>
+    <col min="40" max="40" width="33.3076923076923" style="74" customWidth="1"/>
+    <col min="41" max="41" width="29.6923076923077" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="24" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="26" t="s">
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AK1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="42" t="s">
+      <c r="AM1" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="43" t="s">
+      <c r="AN1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="74" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="2"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="111"/>
+      <c r="AN2" s="113"/>
+      <c r="AO2" s="74"/>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="14">
         <v>2022</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="14">
         <f>F3/E3</f>
         <v>52.3383231737908</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="74">
         <f>(C3-C4)/C4</f>
         <v>0.136217483879853</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="90">
         <v>101407289</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="17">
         <v>5307487463.86</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="17">
         <v>2597344300.25</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <v>2577599922.5</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="92">
         <v>38500000</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="92">
         <v>23161410.09</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="92">
         <v>379657718.27</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="92">
         <v>1035023511.03</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="92">
         <v>558958299.5</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="76">
         <f t="shared" ref="Z3:Z8" si="0">SUM(I3:P3)</f>
         <v>441319128.36</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="76">
         <f t="shared" ref="AA3:AA8" si="1">SUM(Q3:Y3)</f>
         <v>1593981810.53</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="77">
         <f t="shared" ref="AB3:AB8" si="2">(G3+Z3-AA3)</f>
         <v>1444681618.08</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="74">
         <f>(AB3-AB4)/AB4</f>
         <v>0.888539280652637</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AE3" s="92">
         <v>841201241.94</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="74">
         <f>(AE3-AE4)/AE4</f>
         <v>0.446715197438719</v>
       </c>
-      <c r="AG3" s="23">
+      <c r="AG3" s="92">
         <v>14783596.82</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AN3" s="74">
         <f>(AE3+AG3)/(G3+Z3)</f>
         <v>0.281697811840767</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="74">
         <f>(AE3+AG3)/(G3+Z3-AA3)</f>
         <v>0.592507600323464</v>
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="14">
         <v>2021</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="14">
         <f>F4/E4</f>
         <v>46.0636488316221</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="74">
         <f>(C4-C5)/C5</f>
         <v>0.319358035898639</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="14">
         <v>69677800</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="17">
         <v>3209613710.56</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <v>2007180656.87</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="17">
         <v>2007180656.87</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="92">
         <v>5706932.74</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="92">
         <v>100000000</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="92">
         <v>568074363.31</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="92">
         <v>779840195.09</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="76">
         <f t="shared" si="0"/>
         <v>105706932.74</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="76">
         <f t="shared" si="1"/>
         <v>1347914558.4</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="77">
         <f t="shared" si="2"/>
         <v>764973031.21</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="74">
         <f>(AB4-AB5)/AB5</f>
         <v>0.920254671725826</v>
       </c>
-      <c r="AE4" s="23">
+      <c r="AE4" s="92">
         <v>581456006.98</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="74">
         <f>(AE4-AE5)/AE5</f>
         <v>0.377145008566829</v>
       </c>
-      <c r="AG4" s="23">
+      <c r="AG4" s="92">
         <v>-5615997.1</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AN4" s="74">
         <f t="shared" ref="AN4:AN28" si="3">(AE4+AG4)/(G4+Z4)</f>
         <v>0.272536983373682</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="74">
         <f t="shared" ref="AO3:AO8" si="4">(AE4+AG4)/(G4+Z4-AA4)</f>
         <v>0.752758576297993</v>
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="15"/>
-      <c r="B5" s="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="14">
         <v>2020</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="14">
         <f>F5/E5</f>
         <v>34.9136834568543</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="74">
         <f>(C5-C6)/C6</f>
         <v>1.1288259725764</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="90">
         <v>69677800</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <v>2432708653.17</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="17">
         <v>1689929864.37</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="14">
         <f>G5</f>
         <v>1689929864.37</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="N5" s="23">
+      <c r="L5" s="92"/>
+      <c r="N5" s="92">
         <v>20000000</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="92">
         <v>117858210.07</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="92">
         <v>1103701041.03</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="92">
         <v>90000000</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="76">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="76">
         <f t="shared" si="1"/>
         <v>1311559251.1</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="77">
         <f t="shared" si="2"/>
         <v>398370613.27</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="74">
         <f>(AB5-AB6)/AB6</f>
         <v>1.94287777526496</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AE5" s="92">
         <v>422218432.6</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="74">
         <f>(AE5-AE6)/AE6</f>
         <v>0.845884860956732</v>
       </c>
-      <c r="AG5" s="23">
+      <c r="AG5" s="92">
         <v>-3556755.26</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AN5" s="74">
         <f t="shared" si="3"/>
         <v>0.244841432425797</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5" s="74">
         <f t="shared" si="4"/>
         <v>1.05093514278938</v>
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="15"/>
-      <c r="B6" s="1">
+      <c r="A6" s="85"/>
+      <c r="B6" s="14">
         <v>2019</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="14">
         <f>F6/E6</f>
         <v>16.4004403866795</v>
       </c>
-      <c r="D6" s="2" t="e">
+      <c r="D6" s="74" t="e">
         <f>(C6-C7)/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="90">
         <v>51800000</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <v>849542812.03</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <v>376395738.7</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="14">
         <f>G6</f>
         <v>376395738.7</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="92">
         <v>14000000</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="92">
         <v>67000000</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="92">
         <v>322028032.77</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="76">
         <f t="shared" si="0"/>
         <v>81000000</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="76">
         <f t="shared" si="1"/>
         <v>322028032.77</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="77">
         <f t="shared" si="2"/>
         <v>135367705.93</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="74">
         <f>(AB6-AB7)/AB7</f>
         <v>1.23851987887478</v>
       </c>
-      <c r="AE6" s="23">
+      <c r="AE6" s="92">
         <v>228734977.75</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="74">
         <f>(AE6-AE7)/AE7</f>
         <v>0.545729046437287</v>
       </c>
-      <c r="AG6" s="23">
+      <c r="AG6" s="92">
         <v>3345408.95</v>
       </c>
-      <c r="AN6" s="7">
+      <c r="AN6" s="74">
         <f t="shared" si="3"/>
         <v>0.507395165857062</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6" s="74">
         <f t="shared" si="4"/>
         <v>1.71444426206064</v>
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="15"/>
-      <c r="B7" s="1">
+      <c r="A7" s="85"/>
+      <c r="B7" s="14">
         <v>2018</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="17">
         <v>655642978.35</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <v>260472684.71</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <v>260472684.71</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="92">
         <v>4000000</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="92">
         <v>39000000</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="92">
         <v>243000715.17</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="76">
         <f t="shared" si="0"/>
         <v>43000000</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="76">
         <f t="shared" si="1"/>
         <v>243000715.17</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="77">
         <f t="shared" si="2"/>
         <v>60471969.5400001</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="74">
         <f>(AB7-AB8)/AB8</f>
         <v>4.30487724292338</v>
       </c>
-      <c r="AE7" s="23">
+      <c r="AE7" s="92">
         <v>147978701.88</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="74">
         <f>(AE7-AE8)/AE8</f>
         <v>0.252672264816477</v>
       </c>
-      <c r="AG7" s="23">
+      <c r="AG7" s="92">
         <v>2226270.2</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AN7" s="74">
         <f t="shared" si="3"/>
         <v>0.494953844770367</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7" s="74">
         <f t="shared" si="4"/>
         <v>2.48387762499855</v>
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="15"/>
-      <c r="B8" s="1">
+      <c r="A8" s="85"/>
+      <c r="B8" s="14">
         <v>2017</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="17">
         <v>521985587.23</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <v>188242134.75</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="17">
         <v>188242134.75</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="92">
         <v>4000000</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="92">
         <v>30500000</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="92">
         <v>211342819.22</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="76">
         <f t="shared" si="0"/>
         <v>34500000</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="76">
         <f t="shared" si="1"/>
         <v>211342819.22</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="77">
         <f t="shared" si="2"/>
         <v>11399315.53</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AE8" s="92">
         <v>118130420.89</v>
       </c>
-      <c r="AG8" s="23">
+      <c r="AG8" s="92">
         <v>2431512.18</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN8" s="74">
         <f t="shared" si="3"/>
         <v>0.541262357951788</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8" s="74">
         <f t="shared" si="4"/>
         <v>10.5762431746637</v>
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="15"/>
-      <c r="B9" s="1">
+      <c r="A9" s="85"/>
+      <c r="B9" s="14">
         <v>2016</v>
       </c>
-      <c r="AN9" s="7" t="e">
+      <c r="AN9" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="15"/>
-      <c r="B10" s="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="14">
         <v>2015</v>
       </c>
-      <c r="AN10" s="7" t="e">
+      <c r="AN10" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="15"/>
-      <c r="B11" s="1">
+      <c r="A11" s="85"/>
+      <c r="B11" s="14">
         <v>2014</v>
       </c>
-      <c r="AN11" s="7" t="e">
+      <c r="AN11" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="15"/>
-      <c r="B12" s="1">
+      <c r="A12" s="85"/>
+      <c r="B12" s="14">
         <v>2013</v>
       </c>
-      <c r="AN12" s="7" t="e">
+      <c r="AN12" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1">
+      <c r="A13" s="86"/>
+      <c r="B13" s="14">
         <v>2012</v>
       </c>
-      <c r="AH13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AN13" s="7" t="e">
+      <c r="AH13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AN13" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="14">
         <v>2022</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="17">
         <v>25238766516.08</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="17">
         <v>17296017322.93</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="17">
         <v>16948889697.69</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="92">
         <v>742652495.7</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="92">
         <v>12186394.91</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="92">
         <v>1880144644.14</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="92">
         <v>921897223.15</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="92">
         <v>2788812386.06</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="92">
         <v>3280167249.76</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="92">
         <v>4657152857.47</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="76">
         <f t="shared" ref="Z14:Z21" si="5">SUM(I14:P14)</f>
         <v>754838890.61</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14" s="76">
         <f t="shared" ref="AA14:AA21" si="6">SUM(Q14:Y14)</f>
         <v>13528174360.58</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="77">
         <f t="shared" ref="AB14:AB21" si="7">(G14+Z14-AA14)</f>
         <v>4522681852.96</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="74">
         <f>(AB14-AB15)/AB15</f>
         <v>-0.197825218581472</v>
       </c>
-      <c r="AE14" s="23">
+      <c r="AE14" s="92">
         <v>3506816648.23</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF14" s="74">
         <f t="shared" ref="AF14:AF20" si="8">(AE14-AE15)/AE15</f>
         <v>-0.547216033820277</v>
       </c>
-      <c r="AG14" s="23">
+      <c r="AG14" s="92">
         <v>-109962286.55</v>
       </c>
-      <c r="AN14" s="45">
+      <c r="AN14" s="114">
         <f t="shared" si="3"/>
         <v>0.188182450820921</v>
       </c>
-      <c r="AO14" s="2">
+      <c r="AO14" s="74">
         <f t="shared" ref="AO14:AO21" si="9">(AE14+AG14)/(G14+Z14-AA14)</f>
         <v>0.751070818624315</v>
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" s="15"/>
-      <c r="B15" s="1">
+      <c r="A15" s="85"/>
+      <c r="B15" s="14">
         <v>2021</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="17">
         <v>25555259687.25</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="17">
         <v>18682739495.3</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="17">
         <v>18379430976.51</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="92">
         <v>812957201.36</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="92">
         <v>20838320.89</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="92">
         <v>1600082971.48</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="92">
         <v>1323030471.62</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="92">
         <v>3217641031.1</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="92">
         <v>4295642365.99</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Y15" s="92">
         <v>3442112702.46</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="76">
         <f t="shared" si="5"/>
         <v>833795522.25</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AA15" s="76">
         <f t="shared" si="6"/>
         <v>13878509542.65</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="77">
         <f t="shared" si="7"/>
         <v>5638025474.9</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15" s="74">
         <f t="shared" ref="AC15:AC20" si="10">(AB15-AB16)/AB16</f>
         <v>-0.135786566313983</v>
       </c>
-      <c r="AE15" s="23">
+      <c r="AE15" s="92">
         <v>7745010667.71</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15" s="74">
         <f t="shared" si="8"/>
         <v>0.524596689325575</v>
       </c>
-      <c r="AG15" s="23">
+      <c r="AG15" s="92">
         <v>-168683642.15</v>
       </c>
-      <c r="AN15" s="7">
+      <c r="AN15" s="74">
         <f t="shared" si="3"/>
         <v>0.388200416659365</v>
       </c>
-      <c r="AO15" s="46">
+      <c r="AO15" s="114">
         <f t="shared" si="9"/>
         <v>1.34379084650985</v>
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" s="15"/>
-      <c r="B16" s="1">
+      <c r="A16" s="85"/>
+      <c r="B16" s="14">
         <v>2020</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="17">
         <v>21646165070.03</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="17">
         <v>17272419323.58</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="17">
         <v>17016986250.45</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="92">
         <v>50310738.14</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="92">
         <v>1372869799.62</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="92">
         <v>1078844317.74</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="92">
         <v>2140888805.9</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="92">
         <v>4730286378.96</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16" s="92">
         <v>1475959904.22</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="76">
         <f t="shared" si="5"/>
         <v>50310738.14</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="76">
         <f t="shared" si="6"/>
         <v>10798849206.44</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="77">
         <f t="shared" si="7"/>
         <v>6523880855.28</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AC16" s="74">
         <f t="shared" si="10"/>
         <v>0.612733810949541</v>
       </c>
-      <c r="AE16" s="23">
+      <c r="AE16" s="92">
         <v>5080039017.49</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AF16" s="74">
         <f t="shared" si="8"/>
         <v>1.147085932145</v>
       </c>
-      <c r="AG16" s="23">
+      <c r="AG16" s="92">
         <v>-126605815.87</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AN16" s="74">
         <f t="shared" si="3"/>
         <v>0.285949915744872</v>
       </c>
-      <c r="AO16" s="2">
+      <c r="AO16" s="74">
         <f t="shared" si="9"/>
         <v>0.759277079318672</v>
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" s="15"/>
-      <c r="B17" s="1">
+      <c r="A17" s="85"/>
+      <c r="B17" s="14">
         <v>2019</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="17">
         <v>18687079233.62</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="17">
         <v>14006351565.51</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="17">
         <v>13778408776.65</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="92">
         <v>50609581.06</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="92">
         <v>1117250673.84</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="92">
         <v>849464175.16</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="92">
         <v>1842510202.69</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="92">
         <v>3860521939.04</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="92">
         <v>2341983125.78</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="76">
         <f t="shared" si="5"/>
         <v>50609581.06</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="76">
         <f t="shared" si="6"/>
         <v>10011730116.51</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="77">
         <f t="shared" si="7"/>
         <v>4045231030.06</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AC17" s="74">
         <f t="shared" si="10"/>
         <v>-0.492517335142773</v>
       </c>
-      <c r="AE17" s="23">
+      <c r="AE17" s="92">
         <v>2366015696.64</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AF17" s="74">
         <f t="shared" si="8"/>
         <v>-0.659727058228938</v>
       </c>
-      <c r="AG17" s="23">
+      <c r="AG17" s="92">
         <v>-19689880.97</v>
       </c>
-      <c r="AN17" s="45">
+      <c r="AN17" s="114">
         <f t="shared" si="3"/>
         <v>0.166915579491555</v>
       </c>
-      <c r="AO17" s="46">
+      <c r="AO17" s="114">
         <f t="shared" si="9"/>
         <v>0.580022697896491</v>
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="15"/>
-      <c r="B18" s="1">
+      <c r="A18" s="85"/>
+      <c r="B18" s="14">
         <v>2018</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="17">
         <v>19021510376.18</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="17">
         <v>14397984457.52</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="17">
         <v>14201141091.65</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="92">
         <v>892216000</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="92">
         <v>47455135.66</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="92">
         <v>2902358986.81</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="92">
         <v>792534760.28</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="92">
         <v>3671590986.1</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="76">
         <f t="shared" si="5"/>
         <v>939671135.66</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AA18" s="76">
         <f t="shared" si="6"/>
         <v>7366484733.19</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="77">
         <f t="shared" si="7"/>
         <v>7971170859.99</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AC18" s="74">
         <f t="shared" si="10"/>
         <v>0.705321880354078</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="78">
         <v>6941932267.09</v>
       </c>
-      <c r="AE18" s="23">
+      <c r="AE18" s="92">
         <v>6953287805.74</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="74">
         <f t="shared" si="8"/>
         <v>-0.0401505555957367</v>
       </c>
-      <c r="AG18" s="23">
+      <c r="AG18" s="92">
         <v>-93655308.74</v>
       </c>
-      <c r="AN18" s="7">
+      <c r="AN18" s="74">
         <f t="shared" si="3"/>
         <v>0.447241265480637</v>
       </c>
-      <c r="AO18" s="2">
+      <c r="AO18" s="74">
         <f t="shared" si="9"/>
         <v>0.860555195401822</v>
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" s="15"/>
-      <c r="B19" s="1">
+      <c r="A19" s="85"/>
+      <c r="B19" s="14">
         <v>2017</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="17">
         <v>15554602846.85</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="17">
         <v>10557882242.38</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="17">
         <v>10372574413.65</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="92">
         <v>849446000</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="92">
         <v>2069114199</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="92">
         <v>733660143.69</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="92">
         <v>3930262816.1</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="76">
         <f t="shared" si="5"/>
         <v>849446000</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AA19" s="76">
         <f t="shared" si="6"/>
         <v>6733037158.79</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="77">
         <f t="shared" si="7"/>
         <v>4674291083.59</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC19" s="74">
         <f t="shared" si="10"/>
         <v>0.525383354040252</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="78">
         <v>7231724556.89</v>
       </c>
-      <c r="AE19" s="23">
+      <c r="AE19" s="92">
         <v>7244144221.03</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF19" s="74">
         <f t="shared" si="8"/>
         <v>0.683719974111435</v>
       </c>
-      <c r="AG19" s="23">
+      <c r="AG19" s="92">
         <v>-128343374.78</v>
       </c>
-      <c r="AN19" s="7">
+      <c r="AN19" s="74">
         <f t="shared" si="3"/>
         <v>0.623792065508705</v>
       </c>
-      <c r="AO19" s="2">
+      <c r="AO19" s="74">
         <f t="shared" si="9"/>
         <v>1.52232728321764</v>
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" s="15"/>
-      <c r="B20" s="1">
+      <c r="A20" s="85"/>
+      <c r="B20" s="14">
         <v>2016</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="17">
         <v>12129059829.52</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="17">
         <v>8153586694.12</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="17">
         <v>7990926198.4</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="92">
         <v>652078000</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="92">
         <v>1295839436</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="92">
         <v>4445486663.36</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="76">
         <f t="shared" si="5"/>
         <v>652078000</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA20" s="76">
         <f t="shared" si="6"/>
         <v>5741326099.36</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" s="77">
         <f t="shared" si="7"/>
         <v>3064338594.76</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20" s="74">
         <f t="shared" si="10"/>
         <v>1.89211868946456</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="78">
         <v>5316257642.3</v>
       </c>
-      <c r="AE20" s="23">
+      <c r="AE20" s="92">
         <v>4302463789.95</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20" s="74">
         <f t="shared" si="8"/>
         <v>0.230118143454922</v>
       </c>
-      <c r="AG20" s="23">
+      <c r="AG20" s="92">
         <v>-142063223.63</v>
       </c>
-      <c r="AN20" s="7">
+      <c r="AN20" s="74">
         <f t="shared" si="3"/>
         <v>0.472468656352327</v>
       </c>
-      <c r="AO20" s="2">
+      <c r="AO20" s="74">
         <f t="shared" si="9"/>
         <v>1.35768304894056</v>
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" s="15"/>
-      <c r="B21" s="1">
+      <c r="A21" s="85"/>
+      <c r="B21" s="14">
         <v>2015</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="17">
         <v>12501668046.03</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="17">
         <v>4736060678.29</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="17">
         <v>4598731084.44</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="92">
         <v>450706819.95</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="92">
         <v>49342592.13</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="92">
         <v>3176463258.75</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="76">
         <f t="shared" si="6"/>
         <v>3676512670.83</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AB21" s="77">
         <f t="shared" si="7"/>
         <v>1059548007.46</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AD21" s="78">
         <v>3967955684.39</v>
       </c>
-      <c r="AE21" s="23">
+      <c r="AE21" s="92">
         <v>3497602090.37</v>
       </c>
-      <c r="AG21" s="23">
+      <c r="AG21" s="92">
         <v>-129330393.9</v>
       </c>
-      <c r="AN21" s="7">
+      <c r="AN21" s="74">
         <f t="shared" si="3"/>
         <v>0.711196905037574</v>
       </c>
-      <c r="AO21" s="2">
+      <c r="AO21" s="74">
         <f t="shared" si="9"/>
         <v>3.17897034655804</v>
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="15"/>
-      <c r="B22" s="1">
+      <c r="A22" s="85"/>
+      <c r="B22" s="14">
         <v>2014</v>
       </c>
-      <c r="AN22" s="7" t="e">
+      <c r="AN22" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="15"/>
-      <c r="B23" s="1">
+      <c r="A23" s="85"/>
+      <c r="B23" s="14">
         <v>2013</v>
       </c>
-      <c r="AN23" s="7" t="e">
+      <c r="AN23" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="16"/>
-      <c r="B24" s="1">
+      <c r="A24" s="86"/>
+      <c r="B24" s="14">
         <v>2012</v>
       </c>
-      <c r="AN24" s="7" t="e">
+      <c r="AN24" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="14">
         <v>2022</v>
       </c>
-      <c r="AN25" s="7" t="e">
+      <c r="AN25" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="15"/>
-      <c r="B26" s="1">
+      <c r="A26" s="85"/>
+      <c r="B26" s="14">
         <v>2021</v>
       </c>
-      <c r="AN26" s="7" t="e">
+      <c r="AN26" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="15"/>
-      <c r="B27" s="1">
+      <c r="A27" s="85"/>
+      <c r="B27" s="14">
         <v>2020</v>
       </c>
-      <c r="AN27" s="7" t="e">
+      <c r="AN27" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="15"/>
-      <c r="B28" s="1">
+      <c r="A28" s="85"/>
+      <c r="B28" s="14">
         <v>2019</v>
       </c>
-      <c r="AN28" s="7" t="e">
+      <c r="AN28" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="15"/>
-      <c r="B29" s="1">
+      <c r="A29" s="85"/>
+      <c r="B29" s="14">
         <v>2018</v>
       </c>
-      <c r="AN29" s="7" t="e">
+      <c r="AN29" s="74" t="e">
         <f t="shared" ref="AN29:AN40" si="11">(AE29+AG29)/(G29+Z29)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="15"/>
-      <c r="B30" s="1">
+      <c r="A30" s="85"/>
+      <c r="B30" s="14">
         <v>2017</v>
       </c>
-      <c r="AN30" s="7" t="e">
+      <c r="AN30" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="15"/>
-      <c r="B31" s="1">
+      <c r="A31" s="85"/>
+      <c r="B31" s="14">
         <v>2016</v>
       </c>
-      <c r="AN31" s="7" t="e">
+      <c r="AN31" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" s="15"/>
-      <c r="B32" s="1">
+      <c r="A32" s="85"/>
+      <c r="B32" s="14">
         <v>2015</v>
       </c>
-      <c r="AN32" s="7" t="e">
+      <c r="AN32" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" s="15"/>
-      <c r="B33" s="1">
+      <c r="A33" s="85"/>
+      <c r="B33" s="14">
         <v>2014</v>
       </c>
-      <c r="AN33" s="7" t="e">
+      <c r="AN33" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" s="15"/>
-      <c r="B34" s="1">
+      <c r="A34" s="85"/>
+      <c r="B34" s="14">
         <v>2013</v>
       </c>
-      <c r="AN34" s="7" t="e">
+      <c r="AN34" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" s="15"/>
-      <c r="B35" s="1">
+      <c r="A35" s="85"/>
+      <c r="B35" s="14">
         <v>2012</v>
       </c>
-      <c r="AN35" s="7" t="e">
+      <c r="AN35" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AN36" s="7" t="e">
+      <c r="AN36" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AN37" s="7" t="e">
+      <c r="AN37" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AN38" s="7" t="e">
+      <c r="AN38" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AN39" s="7" t="e">
+      <c r="AN39" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AN40" s="7" t="e">
+      <c r="AN40" s="74" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -2797,4 +3174,1308 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AM18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="3" width="24.8365384615385" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.9230769230769" style="3" customWidth="1"/>
+    <col min="6" max="7" width="19.8461538461538" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.8461538461538" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.6923076923077" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.7692307692308" style="2"/>
+    <col min="11" max="12" width="29.6923076923077" style="2" customWidth="1"/>
+    <col min="13" max="13" width="39.3846153846154" style="2" customWidth="1"/>
+    <col min="14" max="14" width="37" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29.6923076923077" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.4615384615385" style="2" customWidth="1"/>
+    <col min="17" max="18" width="24.8461538461538" customWidth="1"/>
+    <col min="19" max="19" width="41.8461538461538" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.1538461538462" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.8461538461538" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20" customWidth="1"/>
+    <col min="24" max="24" width="15.1538461538462"/>
+    <col min="25" max="25" width="16.7692307692308"/>
+    <col min="26" max="27" width="14"/>
+    <col min="28" max="29" width="15.1538461538462" style="2" customWidth="1"/>
+    <col min="30" max="30" width="19.8461538461538" style="5" customWidth="1"/>
+    <col min="31" max="31" width="24.8461538461538" style="6" customWidth="1"/>
+    <col min="32" max="32" width="12.9230769230769" style="2"/>
+    <col min="33" max="33" width="17.6153846153846" style="7" customWidth="1"/>
+    <col min="34" max="34" width="37" style="7" customWidth="1"/>
+    <col min="35" max="35" width="29.6923076923077" style="7" customWidth="1"/>
+    <col min="36" max="36" width="10.3076923076923" style="8" customWidth="1"/>
+    <col min="37" max="37" width="15.1538461538462" style="8" customWidth="1"/>
+    <col min="38" max="38" width="41.8461538461538" style="8" customWidth="1"/>
+    <col min="39" max="39" width="29.6923076923077" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1" spans="1:39">
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+    </row>
+    <row r="2" ht="68" spans="1:39">
+      <c r="A2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM2" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="14">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="14">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="17">
+        <v>17296017322.93</v>
+      </c>
+      <c r="C4" s="17">
+        <v>16948889697.69</v>
+      </c>
+      <c r="D4" s="18">
+        <v>9424959143.22</v>
+      </c>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E9" si="0">(D4-D5)/D5</f>
+        <v>-0.364741812535394</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2839202469.14</v>
+      </c>
+      <c r="G4" s="18">
+        <f>F4*(C4/B4)</f>
+        <v>2782220240.67163</v>
+      </c>
+      <c r="H4" s="18">
+        <v>6698961025.48</v>
+      </c>
+      <c r="I4" s="35">
+        <f t="shared" ref="I4:I9" si="1">(H4-H5)/H5</f>
+        <v>-0.301494283033258</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="43">
+        <v>397731439.74</v>
+      </c>
+      <c r="Y4" s="43">
+        <v>2598984168.23</v>
+      </c>
+      <c r="Z4" s="43">
+        <v>4404944.61</v>
+      </c>
+      <c r="AA4" s="43">
+        <v>12483753.97</v>
+      </c>
+      <c r="AB4" s="46">
+        <f>SUM(X4:AA4)</f>
+        <v>3013604306.55</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>95172410.27</v>
+      </c>
+      <c r="AD4" s="56">
+        <v>14442199726</v>
+      </c>
+      <c r="AE4" s="35">
+        <f t="shared" ref="AE4:AE9" si="2">(AD4-AD5)/AD5</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="57">
+        <f>F4/AD4</f>
+        <v>0.196590721843338</v>
+      </c>
+      <c r="AG4" s="57">
+        <f>(F4+AB4-AC4)/AD4</f>
+        <v>0.398667410412186</v>
+      </c>
+      <c r="AH4" s="57">
+        <f>(F4+AB4-$AC$12)/AD4</f>
+        <v>0.380080968339463</v>
+      </c>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="69">
+        <f>AF4*(C4/B4)</f>
+        <v>0.192645185183449</v>
+      </c>
+      <c r="AK4" s="69">
+        <f>AG4*(C4/B4)</f>
+        <v>0.3906662348321</v>
+      </c>
+      <c r="AL4" s="69">
+        <f>AH4*(C4/B4)</f>
+        <v>0.372452818952512</v>
+      </c>
+      <c r="AM4" s="69">
+        <f>AI4*(C4/B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="14">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="17">
+        <v>18682739495.3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>18379430976.51</v>
+      </c>
+      <c r="D5" s="18">
+        <v>14836422936.69</v>
+      </c>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>0.226443983543073</v>
+      </c>
+      <c r="F5" s="18">
+        <v>6111627555.86</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" ref="G5:G11" si="3">F5*(C5/B5)</f>
+        <v>6012407165.73304</v>
+      </c>
+      <c r="H5" s="18">
+        <v>9590416889.6</v>
+      </c>
+      <c r="I5" s="35">
+        <f t="shared" si="1"/>
+        <v>0.8360446166522</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18">
+        <v>473783883.16</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>2667107504.63</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>5392275.12</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>10618717.79</v>
+      </c>
+      <c r="AB5" s="46">
+        <f>SUM(X5:AA5)</f>
+        <v>3156902380.7</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>249947082.71</v>
+      </c>
+      <c r="AD5" s="56">
+        <v>14442199726</v>
+      </c>
+      <c r="AE5" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.0160568521819283</v>
+      </c>
+      <c r="AF5" s="57">
+        <f t="shared" ref="AF5:AF11" si="4">F5/AD5</f>
+        <v>0.423178440390722</v>
+      </c>
+      <c r="AG5" s="57">
+        <f t="shared" ref="AG5:AG11" si="5">(F5+AB5-AC5)/AD5</f>
+        <v>0.62446047173922</v>
+      </c>
+      <c r="AH5" s="57">
+        <f t="shared" ref="AH5:AH11" si="6">(F5+AB5-$AC$12)/AD5</f>
+        <v>0.616590864731543</v>
+      </c>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="69">
+        <f t="shared" ref="AJ5:AJ11" si="7">AF5*(C5/B5)</f>
+        <v>0.416308268809565</v>
+      </c>
+      <c r="AK5" s="69">
+        <f t="shared" ref="AK5:AK11" si="8">AG5*(C5/B5)</f>
+        <v>0.614322548402347</v>
+      </c>
+      <c r="AL5" s="69">
+        <f t="shared" ref="AL5:AL11" si="9">AH5*(C5/B5)</f>
+        <v>0.606580702039492</v>
+      </c>
+      <c r="AM5" s="69">
+        <f t="shared" ref="AM5:AM11" si="10">AI5*(C5/B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="17">
+        <v>17272419323.58</v>
+      </c>
+      <c r="C6" s="17">
+        <v>17016986250.45</v>
+      </c>
+      <c r="D6" s="18">
+        <v>12097106052.76</v>
+      </c>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>-0.00320057386427977</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4000895761.87</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="3"/>
+        <v>3941728538.06759</v>
+      </c>
+      <c r="H6" s="18">
+        <v>5223411676.72</v>
+      </c>
+      <c r="I6" s="35">
+        <f t="shared" si="1"/>
+        <v>0.522918324631967</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18">
+        <v>477880003.67</v>
+      </c>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18">
+        <v>22875042.12</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>10842879.42</v>
+      </c>
+      <c r="AB6" s="46">
+        <f>SUM(X6:AA6)</f>
+        <v>511597925.21</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>61129824.87</v>
+      </c>
+      <c r="AD6" s="56">
+        <v>14677880280</v>
+      </c>
+      <c r="AE6" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="57">
+        <f t="shared" si="4"/>
+        <v>0.272579942440435</v>
+      </c>
+      <c r="AG6" s="57">
+        <f t="shared" si="5"/>
+        <v>0.303270211862636</v>
+      </c>
+      <c r="AH6" s="57">
+        <f t="shared" si="6"/>
+        <v>0.282662897438485</v>
+      </c>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="69">
+        <f t="shared" si="7"/>
+        <v>0.268548895540358</v>
+      </c>
+      <c r="AK6" s="69">
+        <f t="shared" si="8"/>
+        <v>0.298785302090957</v>
+      </c>
+      <c r="AL6" s="69">
+        <f t="shared" si="9"/>
+        <v>0.278482738816816</v>
+      </c>
+      <c r="AM6" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="20">
+        <v>14006351565.51</v>
+      </c>
+      <c r="C7" s="20">
+        <v>13778408776.65</v>
+      </c>
+      <c r="D7" s="18">
+        <v>12135948050.91</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>-0.165987887653113</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1855079113.42</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="3"/>
+        <v>1824889102.50309</v>
+      </c>
+      <c r="H7" s="18">
+        <v>3429869870.39</v>
+      </c>
+      <c r="I7" s="35">
+        <f t="shared" si="1"/>
+        <v>-0.0933087507194417</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18">
+        <v>484781326.86</v>
+      </c>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18">
+        <v>15053067.23</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>15382494.88</v>
+      </c>
+      <c r="AB7" s="46">
+        <f>SUM(X7:AA7)</f>
+        <v>515216888.97</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>342638318.42</v>
+      </c>
+      <c r="AD7" s="56">
+        <v>14677880280</v>
+      </c>
+      <c r="AE7" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="57">
+        <f t="shared" si="4"/>
+        <v>0.126386036541511</v>
+      </c>
+      <c r="AG7" s="57">
+        <f t="shared" si="5"/>
+        <v>0.138143767716438</v>
+      </c>
+      <c r="AH7" s="57">
+        <f t="shared" si="6"/>
+        <v>0.136715550558367</v>
+      </c>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="69">
+        <f t="shared" si="7"/>
+        <v>0.124329199291104</v>
+      </c>
+      <c r="AK7" s="69">
+        <f t="shared" si="8"/>
+        <v>0.135895582275023</v>
+      </c>
+      <c r="AL7" s="69">
+        <f t="shared" si="9"/>
+        <v>0.134490608272073</v>
+      </c>
+      <c r="AM7" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="20">
+        <v>14397984457.52</v>
+      </c>
+      <c r="C8" s="20">
+        <v>14201141091.65</v>
+      </c>
+      <c r="D8" s="18">
+        <v>14551285132.73</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.211239082071894</v>
+      </c>
+      <c r="F8" s="18">
+        <v>5792227174.51</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="3"/>
+        <v>5713038209.11848</v>
+      </c>
+      <c r="H8" s="18">
+        <v>3782842145.12</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="1"/>
+        <v>-0.0898434998388674</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18">
+        <v>219590665.4</v>
+      </c>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18">
+        <v>5466105.09</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>4905608.79</v>
+      </c>
+      <c r="AB8" s="46">
+        <f>SUM(X8:AA8)</f>
+        <v>229962379.28</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>1708830799.68</v>
+      </c>
+      <c r="AD8" s="56">
+        <v>14677880280</v>
+      </c>
+      <c r="AE8" s="35">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF8" s="57">
+        <f t="shared" si="4"/>
+        <v>0.394622865428495</v>
+      </c>
+      <c r="AG8" s="57">
+        <f t="shared" si="5"/>
+        <v>0.293867961301426</v>
+      </c>
+      <c r="AH8" s="57">
+        <f t="shared" si="6"/>
+        <v>0.385518067116296</v>
+      </c>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="69">
+        <f t="shared" si="7"/>
+        <v>0.389227742707715</v>
+      </c>
+      <c r="AK8" s="69">
+        <f t="shared" si="8"/>
+        <v>0.289850318499088</v>
+      </c>
+      <c r="AL8" s="69">
+        <f t="shared" si="9"/>
+        <v>0.380247421481224</v>
+      </c>
+      <c r="AM8" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="20">
+        <v>10557882242.38</v>
+      </c>
+      <c r="C9" s="20">
+        <v>10372574413.65</v>
+      </c>
+      <c r="D9" s="18">
+        <v>12013553185.42</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.17628465877981</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5973395164.18</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="3"/>
+        <v>5868552463.47462</v>
+      </c>
+      <c r="H9" s="18">
+        <v>4156254605.06</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="1"/>
+        <v>-0.134115796359104</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18">
+        <v>129350004.27</v>
+      </c>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18">
+        <v>2442006.46</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>1418080.25</v>
+      </c>
+      <c r="AB9" s="46">
+        <f>SUM(X9:AA9)</f>
+        <v>133210090.98</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>263317968.65</v>
+      </c>
+      <c r="AD9" s="56">
+        <v>12231566900</v>
+      </c>
+      <c r="AE9" s="35">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="AF9" s="57">
+        <f t="shared" si="4"/>
+        <v>0.488358949676349</v>
+      </c>
+      <c r="AG9" s="57">
+        <f t="shared" si="5"/>
+        <v>0.477721892402027</v>
+      </c>
+      <c r="AH9" s="57">
+        <f t="shared" si="6"/>
+        <v>0.469523143128948</v>
+      </c>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="69">
+        <f t="shared" si="7"/>
+        <v>0.479787463981791</v>
+      </c>
+      <c r="AK9" s="69">
+        <f t="shared" si="8"/>
+        <v>0.469337104185461</v>
+      </c>
+      <c r="AL9" s="69">
+        <f t="shared" si="9"/>
+        <v>0.461282256159925</v>
+      </c>
+      <c r="AM9" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="20">
+        <v>8153586694.12</v>
+      </c>
+      <c r="C10" s="20">
+        <v>7990926198.4</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10213134291.73</v>
+      </c>
+      <c r="E10" s="28">
+        <f>(D10-D11)/D11</f>
+        <v>0.183800519865785</v>
+      </c>
+      <c r="F10" s="18">
+        <v>4447853534.27</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="3"/>
+        <v>4359120797.63324</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4800012042.7</v>
+      </c>
+      <c r="I10" s="35">
+        <f>(H10-H11)/H11</f>
+        <v>0.824784763582315</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18">
+        <v>125798247.77</v>
+      </c>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18">
+        <v>4570943.09</v>
+      </c>
+      <c r="AB10" s="46">
+        <f>SUM(X10:AA10)</f>
+        <v>130369190.86</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>94956319.61</v>
+      </c>
+      <c r="AD10" s="56">
+        <v>8736833500</v>
+      </c>
+      <c r="AE10" s="35">
+        <f>(AD10-AD11)/AD11</f>
+        <v>1.12270743877612</v>
+      </c>
+      <c r="AF10" s="57">
+        <f t="shared" si="4"/>
+        <v>0.509092171010241</v>
+      </c>
+      <c r="AG10" s="57">
+        <f t="shared" si="5"/>
+        <v>0.513145455446759</v>
+      </c>
+      <c r="AH10" s="57">
+        <f t="shared" si="6"/>
+        <v>0.482396878256865</v>
+      </c>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="69">
+        <f t="shared" si="7"/>
+        <v>0.498936004404026</v>
+      </c>
+      <c r="AK10" s="69">
+        <f t="shared" si="8"/>
+        <v>0.502908427585189</v>
+      </c>
+      <c r="AL10" s="69">
+        <f t="shared" si="9"/>
+        <v>0.472773271089282</v>
+      </c>
+      <c r="AM10" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="14">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="17">
+        <v>4736060678.29</v>
+      </c>
+      <c r="C11" s="17">
+        <v>4598731084.44</v>
+      </c>
+      <c r="D11" s="18">
+        <v>8627411561.61</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="18">
+        <v>3385772840.37</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="3"/>
+        <v>3287596984.8182</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2630453814.88</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18">
+        <v>135694324.6</v>
+      </c>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18">
+        <v>3655837.73</v>
+      </c>
+      <c r="AB11" s="46">
+        <f>SUM(X11:AA11)</f>
+        <v>139350162.33</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>92819426.83</v>
+      </c>
+      <c r="AD11" s="56">
+        <v>4115891498</v>
+      </c>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="57">
+        <f t="shared" si="4"/>
+        <v>0.822609838479761</v>
+      </c>
+      <c r="AG11" s="57">
+        <f t="shared" si="5"/>
+        <v>0.833914979910872</v>
+      </c>
+      <c r="AH11" s="57">
+        <f t="shared" si="6"/>
+        <v>0.768125565349876</v>
+      </c>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="69">
+        <f t="shared" si="7"/>
+        <v>0.798756961017002</v>
+      </c>
+      <c r="AK11" s="69">
+        <f t="shared" si="8"/>
+        <v>0.809734291934987</v>
+      </c>
+      <c r="AL11" s="69">
+        <f t="shared" si="9"/>
+        <v>0.745852545834133</v>
+      </c>
+      <c r="AM11" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:39">
+      <c r="A12" s="21">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="58">
+        <f>AVERAGE(AC4:AC11)</f>
+        <v>363601518.88</v>
+      </c>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="60">
+        <f>AVERAGE(AF4:AF11)</f>
+        <v>0.404177370726357</v>
+      </c>
+      <c r="AG12" s="22">
+        <f>AVERAGE(AG4:AG11)</f>
+        <v>0.447899018848946</v>
+      </c>
+      <c r="AH12" s="60">
+        <f>AVERAGE(AH4:AH11)</f>
+        <v>0.44020174186498</v>
+      </c>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="71">
+        <f>AVERAGE(AJ4:AJ11)</f>
+        <v>0.396067465116876</v>
+      </c>
+      <c r="AK12" s="71">
+        <f>AVERAGE(AK4:AK11)</f>
+        <v>0.438937476225644</v>
+      </c>
+      <c r="AL12" s="71">
+        <f>AVERAGE(AL4:AL11)</f>
+        <v>0.431520295330682</v>
+      </c>
+      <c r="AM12" s="71"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="14">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="14">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="14">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="69"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="14">
+        <v>2010</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
@@ -3182,11 +3182,11 @@
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/广告营销行业/广告营销行业.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>名称</t>
   </si>
@@ -196,6 +196,27 @@
     <t>净经营现金流量同比增长率</t>
   </si>
   <si>
+    <t>其他收益</t>
+  </si>
+  <si>
+    <t>投资收益</t>
+  </si>
+  <si>
+    <t>公允价值变动收益</t>
+  </si>
+  <si>
+    <t>资产减值损失</t>
+  </si>
+  <si>
+    <t>资产处置收益</t>
+  </si>
+  <si>
+    <t>营业外收入</t>
+  </si>
+  <si>
+    <t>营业外支出</t>
+  </si>
+  <si>
     <t>子公司</t>
   </si>
   <si>
@@ -220,43 +241,136 @@
     <t>扣除非经常收益的股东盈余</t>
   </si>
   <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>存款及应收款项的利息收入</t>
-  </si>
-  <si>
-    <t>净汇兑收益</t>
-  </si>
-  <si>
-    <t>交易性金融资产处置取得的投资收益</t>
-  </si>
-  <si>
-    <t>交易性金融资产公允价值变动收益</t>
+    <t>归母股东的每股股东盈余情况</t>
+  </si>
+  <si>
+    <t>利息收入</t>
+  </si>
+  <si>
+    <t>广东财政</t>
+  </si>
+  <si>
+    <t>浙江宁波财政</t>
+  </si>
+  <si>
+    <t>上海长宁财政</t>
+  </si>
+  <si>
+    <t>个税手续费返还</t>
+  </si>
+  <si>
+    <t>四川成都财政</t>
+  </si>
+  <si>
+    <t>上海浦东新区财政</t>
+  </si>
+  <si>
+    <t>递延收益摊销</t>
+  </si>
+  <si>
+    <t>上海崇明财政</t>
+  </si>
+  <si>
+    <t>所得税补贴款</t>
+  </si>
+  <si>
+    <t>其他零星</t>
+  </si>
+  <si>
+    <t>政府补助</t>
+  </si>
+  <si>
+    <t>增值税进项税加计抵减</t>
+  </si>
+  <si>
+    <t>代扣个人所得税手续费</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>权益法核算的长期股权投资收益</t>
+  </si>
+  <si>
+    <t>处置长期股权投资产生的投资收益</t>
+  </si>
+  <si>
+    <t>可供出售金融资产在持有期间的投资收益</t>
   </si>
   <si>
     <t>处置可供出售金融资产取得的投资收益</t>
   </si>
   <si>
-    <t>固定资产的处置收益</t>
-  </si>
-  <si>
-    <t>与资产相关的政府补助</t>
-  </si>
-  <si>
-    <t>与收益相关的政府补助</t>
-  </si>
-  <si>
-    <t>存货跌价损失及合同履约成本减值损失</t>
-  </si>
-  <si>
-    <t>商誉减值损失</t>
+    <t>处置交易性金融资产取得的投资收益</t>
+  </si>
+  <si>
+    <t>其他权益工具投资在持有期间取得的股利收入</t>
+  </si>
+  <si>
+    <t>丧失控制权后，剩余股权按公允价值重新计量产生的利得</t>
+  </si>
+  <si>
+    <t>理财产品投资收益</t>
+  </si>
+  <si>
+    <t>债务重组收益</t>
+  </si>
+  <si>
+    <t>其他非流动金融资产在持有期间的投资收益</t>
+  </si>
+  <si>
+    <t>处置其他非流动金融资产取得的投资收益</t>
+  </si>
+  <si>
+    <t>取得控制权时，购买日前持有的股权按公允价值重新计量产生的损益</t>
   </si>
   <si>
     <t>应收账款坏账损失</t>
   </si>
   <si>
-    <t>应收账款减值损失</t>
+    <t>其他应收款坏账损失</t>
+  </si>
+  <si>
+    <t>坏账损失</t>
+  </si>
+  <si>
+    <t>可供出售金融资产减值损失</t>
+  </si>
+  <si>
+    <t>长期股权投资减值损失</t>
+  </si>
+  <si>
+    <t>合同资产减值损失</t>
+  </si>
+  <si>
+    <t>固定资产处置利得</t>
+  </si>
+  <si>
+    <t>使用权资产处置利得</t>
+  </si>
+  <si>
+    <t>非流动资产处置利得合计</t>
+  </si>
+  <si>
+    <t>接受捐赠</t>
+  </si>
+  <si>
+    <t>无法支付的应付款项</t>
+  </si>
+  <si>
+    <t>盘盈利得</t>
+  </si>
+  <si>
+    <t>对外捐赠</t>
+  </si>
+  <si>
+    <t>非常损失</t>
+  </si>
+  <si>
+    <t>盘亏损失</t>
+  </si>
+  <si>
+    <t>非流动资产毁损报废损失</t>
   </si>
   <si>
     <t>固定资产折旧、油气资产折耗、生产性生物资产折旧</t>
@@ -1087,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,71 +1295,77 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1767,43 +1887,43 @@
     <col min="1" max="1" width="10.3076923076923" style="14" customWidth="1"/>
     <col min="2" max="2" width="9.23076923076923" style="14"/>
     <col min="3" max="3" width="15.1538461538462" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.1538461538462" style="74" customWidth="1"/>
+    <col min="4" max="4" width="15.1538461538462" style="76" customWidth="1"/>
     <col min="5" max="5" width="15.1538461538462" style="14" customWidth="1"/>
     <col min="6" max="7" width="16.2307692307692" style="14" customWidth="1"/>
     <col min="8" max="8" width="18.7692307692308" style="14" customWidth="1"/>
-    <col min="9" max="9" width="18.7692307692308" style="75" customWidth="1"/>
-    <col min="10" max="10" width="13.4615384615385" style="75" customWidth="1"/>
-    <col min="11" max="11" width="11.5384615384615" style="75" customWidth="1"/>
-    <col min="12" max="12" width="13.4615384615385" style="75" customWidth="1"/>
-    <col min="13" max="13" width="18.7692307692308" style="75" customWidth="1"/>
-    <col min="14" max="14" width="14.5384615384615" style="75" customWidth="1"/>
-    <col min="15" max="15" width="52.6923076923077" style="75" customWidth="1"/>
-    <col min="16" max="16" width="16.3846153846154" style="75" customWidth="1"/>
-    <col min="17" max="17" width="21.2307692307692" style="75" customWidth="1"/>
-    <col min="18" max="18" width="18.7692307692308" style="75" customWidth="1"/>
-    <col min="19" max="19" width="16.3846153846154" style="75" customWidth="1"/>
-    <col min="20" max="20" width="21.2307692307692" style="75" customWidth="1"/>
-    <col min="21" max="21" width="23.6153846153846" style="75" customWidth="1"/>
-    <col min="22" max="22" width="16.3846153846154" style="75" customWidth="1"/>
-    <col min="23" max="23" width="14.5384615384615" style="75" customWidth="1"/>
-    <col min="24" max="24" width="11.5384615384615" style="75" customWidth="1"/>
-    <col min="25" max="25" width="18.7692307692308" style="75" customWidth="1"/>
-    <col min="26" max="26" width="16.3846153846154" style="76" customWidth="1"/>
-    <col min="27" max="27" width="21.2307692307692" style="76" customWidth="1"/>
-    <col min="28" max="28" width="18.7692307692308" style="77" customWidth="1"/>
-    <col min="29" max="29" width="18.7692307692308" style="74" customWidth="1"/>
-    <col min="30" max="30" width="18.7692307692308" style="78" customWidth="1"/>
-    <col min="31" max="31" width="16.2307692307692" style="75" customWidth="1"/>
-    <col min="32" max="32" width="17.6153846153846" style="74" customWidth="1"/>
-    <col min="33" max="33" width="15.3076923076923" style="75" customWidth="1"/>
-    <col min="34" max="34" width="13.9230769230769" style="75" customWidth="1"/>
-    <col min="35" max="35" width="9.23076923076923" style="75" customWidth="1"/>
-    <col min="36" max="36" width="13.9230769230769" style="75" customWidth="1"/>
-    <col min="37" max="37" width="11.5384615384615" style="75" customWidth="1"/>
-    <col min="38" max="38" width="16.3846153846154" style="75" customWidth="1"/>
-    <col min="39" max="39" width="11.5384615384615" style="75" customWidth="1"/>
-    <col min="40" max="40" width="33.3076923076923" style="74" customWidth="1"/>
-    <col min="41" max="41" width="29.6923076923077" style="79" customWidth="1"/>
+    <col min="9" max="9" width="18.7692307692308" style="77" customWidth="1"/>
+    <col min="10" max="10" width="13.4615384615385" style="77" customWidth="1"/>
+    <col min="11" max="11" width="11.5384615384615" style="77" customWidth="1"/>
+    <col min="12" max="12" width="13.4615384615385" style="77" customWidth="1"/>
+    <col min="13" max="13" width="18.7692307692308" style="77" customWidth="1"/>
+    <col min="14" max="14" width="14.5384615384615" style="77" customWidth="1"/>
+    <col min="15" max="15" width="52.6923076923077" style="77" customWidth="1"/>
+    <col min="16" max="16" width="16.3846153846154" style="77" customWidth="1"/>
+    <col min="17" max="17" width="21.2307692307692" style="77" customWidth="1"/>
+    <col min="18" max="18" width="18.7692307692308" style="77" customWidth="1"/>
+    <col min="19" max="19" width="16.3846153846154" style="77" customWidth="1"/>
+    <col min="20" max="20" width="21.2307692307692" style="77" customWidth="1"/>
+    <col min="21" max="21" width="23.6153846153846" style="77" customWidth="1"/>
+    <col min="22" max="22" width="16.3846153846154" style="77" customWidth="1"/>
+    <col min="23" max="23" width="14.5384615384615" style="77" customWidth="1"/>
+    <col min="24" max="24" width="11.5384615384615" style="77" customWidth="1"/>
+    <col min="25" max="25" width="18.7692307692308" style="77" customWidth="1"/>
+    <col min="26" max="26" width="16.3846153846154" style="78" customWidth="1"/>
+    <col min="27" max="27" width="21.2307692307692" style="78" customWidth="1"/>
+    <col min="28" max="28" width="18.7692307692308" style="79" customWidth="1"/>
+    <col min="29" max="29" width="18.7692307692308" style="76" customWidth="1"/>
+    <col min="30" max="30" width="18.7692307692308" style="80" customWidth="1"/>
+    <col min="31" max="31" width="16.2307692307692" style="77" customWidth="1"/>
+    <col min="32" max="32" width="17.6153846153846" style="76" customWidth="1"/>
+    <col min="33" max="33" width="15.3076923076923" style="77" customWidth="1"/>
+    <col min="34" max="34" width="13.9230769230769" style="77" customWidth="1"/>
+    <col min="35" max="35" width="9.23076923076923" style="77" customWidth="1"/>
+    <col min="36" max="36" width="13.9230769230769" style="77" customWidth="1"/>
+    <col min="37" max="37" width="11.5384615384615" style="77" customWidth="1"/>
+    <col min="38" max="38" width="16.3846153846154" style="77" customWidth="1"/>
+    <col min="39" max="39" width="11.5384615384615" style="77" customWidth="1"/>
+    <col min="40" max="40" width="33.3076923076923" style="76" customWidth="1"/>
+    <col min="41" max="41" width="29.6923076923077" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -1813,173 +1933,173 @@
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="93" t="s">
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="95" t="s">
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="89" t="s">
+      <c r="AA1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="96" t="s">
+      <c r="AB1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="99" t="s">
+      <c r="AC1" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="100" t="s">
+      <c r="AD1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="101" t="s">
+      <c r="AE1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="102" t="s">
+      <c r="AF1" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="105" t="s">
+      <c r="AG1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="106" t="s">
+      <c r="AH1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="107" t="s">
+      <c r="AI1" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="108" t="s">
+      <c r="AJ1" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="109" t="s">
+      <c r="AK1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="110" t="s">
+      <c r="AL1" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="111" t="s">
+      <c r="AM1" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="112" t="s">
+      <c r="AN1" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="74" t="s">
+      <c r="AO1" s="76" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="91" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="N2" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="O2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="91" t="s">
+      <c r="P2" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="93" t="s">
+      <c r="Q2" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="93" t="s">
+      <c r="S2" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="93" t="s">
+      <c r="T2" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="94" t="s">
+      <c r="U2" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="94" t="s">
+      <c r="V2" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="94" t="s">
+      <c r="W2" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="94" t="s">
+      <c r="X2" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="94" t="s">
+      <c r="Y2" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="110"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="113"/>
-      <c r="AO2" s="74"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="111"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="113"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="76"/>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="14">
@@ -1989,11 +2109,11 @@
         <f>F3/E3</f>
         <v>52.3383231737908</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="76">
         <f>(C3-C4)/C4</f>
         <v>0.136217483879853</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="92">
         <v>101407289</v>
       </c>
       <c r="F3" s="17">
@@ -2005,58 +2125,58 @@
       <c r="H3" s="17">
         <v>2577599922.5</v>
       </c>
-      <c r="J3" s="92">
+      <c r="J3" s="94">
         <v>38500000</v>
       </c>
-      <c r="L3" s="92">
+      <c r="L3" s="94">
         <v>23161410.09</v>
       </c>
-      <c r="N3" s="92">
+      <c r="N3" s="94">
         <v>379657718.27</v>
       </c>
-      <c r="U3" s="92">
+      <c r="U3" s="94">
         <v>1035023511.03</v>
       </c>
-      <c r="W3" s="92">
+      <c r="W3" s="94">
         <v>558958299.5</v>
       </c>
-      <c r="Z3" s="76">
+      <c r="Z3" s="78">
         <f t="shared" ref="Z3:Z8" si="0">SUM(I3:P3)</f>
         <v>441319128.36</v>
       </c>
-      <c r="AA3" s="76">
+      <c r="AA3" s="78">
         <f t="shared" ref="AA3:AA8" si="1">SUM(Q3:Y3)</f>
         <v>1593981810.53</v>
       </c>
-      <c r="AB3" s="77">
+      <c r="AB3" s="79">
         <f t="shared" ref="AB3:AB8" si="2">(G3+Z3-AA3)</f>
         <v>1444681618.08</v>
       </c>
-      <c r="AC3" s="74">
+      <c r="AC3" s="76">
         <f>(AB3-AB4)/AB4</f>
         <v>0.888539280652637</v>
       </c>
-      <c r="AE3" s="92">
+      <c r="AE3" s="94">
         <v>841201241.94</v>
       </c>
-      <c r="AF3" s="74">
+      <c r="AF3" s="76">
         <f>(AE3-AE4)/AE4</f>
         <v>0.446715197438719</v>
       </c>
-      <c r="AG3" s="92">
+      <c r="AG3" s="94">
         <v>14783596.82</v>
       </c>
-      <c r="AN3" s="74">
+      <c r="AN3" s="76">
         <f>(AE3+AG3)/(G3+Z3)</f>
         <v>0.281697811840767</v>
       </c>
-      <c r="AO3" s="74">
+      <c r="AO3" s="76">
         <f>(AE3+AG3)/(G3+Z3-AA3)</f>
         <v>0.592507600323464</v>
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="85"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="14">
         <v>2021</v>
       </c>
@@ -2064,7 +2184,7 @@
         <f>F4/E4</f>
         <v>46.0636488316221</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="76">
         <f>(C4-C5)/C5</f>
         <v>0.319358035898639</v>
       </c>
@@ -2080,55 +2200,55 @@
       <c r="H4" s="17">
         <v>2007180656.87</v>
       </c>
-      <c r="L4" s="92">
+      <c r="L4" s="94">
         <v>5706932.74</v>
       </c>
-      <c r="N4" s="92">
+      <c r="N4" s="94">
         <v>100000000</v>
       </c>
-      <c r="U4" s="92">
+      <c r="U4" s="94">
         <v>568074363.31</v>
       </c>
-      <c r="W4" s="92">
+      <c r="W4" s="94">
         <v>779840195.09</v>
       </c>
-      <c r="Z4" s="76">
+      <c r="Z4" s="78">
         <f t="shared" si="0"/>
         <v>105706932.74</v>
       </c>
-      <c r="AA4" s="76">
+      <c r="AA4" s="78">
         <f t="shared" si="1"/>
         <v>1347914558.4</v>
       </c>
-      <c r="AB4" s="77">
+      <c r="AB4" s="79">
         <f t="shared" si="2"/>
         <v>764973031.21</v>
       </c>
-      <c r="AC4" s="74">
+      <c r="AC4" s="76">
         <f>(AB4-AB5)/AB5</f>
         <v>0.920254671725826</v>
       </c>
-      <c r="AE4" s="92">
+      <c r="AE4" s="94">
         <v>581456006.98</v>
       </c>
-      <c r="AF4" s="74">
+      <c r="AF4" s="76">
         <f>(AE4-AE5)/AE5</f>
         <v>0.377145008566829</v>
       </c>
-      <c r="AG4" s="92">
+      <c r="AG4" s="94">
         <v>-5615997.1</v>
       </c>
-      <c r="AN4" s="74">
+      <c r="AN4" s="76">
         <f t="shared" ref="AN4:AN28" si="3">(AE4+AG4)/(G4+Z4)</f>
         <v>0.272536983373682</v>
       </c>
-      <c r="AO4" s="74">
+      <c r="AO4" s="76">
         <f t="shared" ref="AO3:AO8" si="4">(AE4+AG4)/(G4+Z4-AA4)</f>
         <v>0.752758576297993</v>
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="85"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="14">
         <v>2020</v>
       </c>
@@ -2136,11 +2256,11 @@
         <f>F5/E5</f>
         <v>34.9136834568543</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="76">
         <f>(C5-C6)/C6</f>
         <v>1.1288259725764</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="92">
         <v>69677800</v>
       </c>
       <c r="F5" s="17">
@@ -2153,56 +2273,56 @@
         <f>G5</f>
         <v>1689929864.37</v>
       </c>
-      <c r="L5" s="92"/>
-      <c r="N5" s="92">
+      <c r="L5" s="94"/>
+      <c r="N5" s="94">
         <v>20000000</v>
       </c>
-      <c r="U5" s="92">
+      <c r="U5" s="94">
         <v>117858210.07</v>
       </c>
-      <c r="W5" s="92">
+      <c r="W5" s="94">
         <v>1103701041.03</v>
       </c>
-      <c r="Y5" s="92">
+      <c r="Y5" s="94">
         <v>90000000</v>
       </c>
-      <c r="Z5" s="76">
+      <c r="Z5" s="78">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
-      <c r="AA5" s="76">
+      <c r="AA5" s="78">
         <f t="shared" si="1"/>
         <v>1311559251.1</v>
       </c>
-      <c r="AB5" s="77">
+      <c r="AB5" s="79">
         <f t="shared" si="2"/>
         <v>398370613.27</v>
       </c>
-      <c r="AC5" s="74">
+      <c r="AC5" s="76">
         <f>(AB5-AB6)/AB6</f>
         <v>1.94287777526496</v>
       </c>
-      <c r="AE5" s="92">
+      <c r="AE5" s="94">
         <v>422218432.6</v>
       </c>
-      <c r="AF5" s="74">
+      <c r="AF5" s="76">
         <f>(AE5-AE6)/AE6</f>
         <v>0.845884860956732</v>
       </c>
-      <c r="AG5" s="92">
+      <c r="AG5" s="94">
         <v>-3556755.26</v>
       </c>
-      <c r="AN5" s="74">
+      <c r="AN5" s="76">
         <f t="shared" si="3"/>
         <v>0.244841432425797</v>
       </c>
-      <c r="AO5" s="74">
+      <c r="AO5" s="76">
         <f t="shared" si="4"/>
         <v>1.05093514278938</v>
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="85"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="14">
         <v>2019</v>
       </c>
@@ -2210,11 +2330,11 @@
         <f>F6/E6</f>
         <v>16.4004403866795</v>
       </c>
-      <c r="D6" s="74" t="e">
+      <c r="D6" s="76" t="e">
         <f>(C6-C7)/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="92">
         <v>51800000</v>
       </c>
       <c r="F6" s="17">
@@ -2227,52 +2347,52 @@
         <f>G6</f>
         <v>376395738.7</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="94">
         <v>14000000</v>
       </c>
-      <c r="N6" s="92">
+      <c r="N6" s="94">
         <v>67000000</v>
       </c>
-      <c r="W6" s="92">
+      <c r="W6" s="94">
         <v>322028032.77</v>
       </c>
-      <c r="Z6" s="76">
+      <c r="Z6" s="78">
         <f t="shared" si="0"/>
         <v>81000000</v>
       </c>
-      <c r="AA6" s="76">
+      <c r="AA6" s="78">
         <f t="shared" si="1"/>
         <v>322028032.77</v>
       </c>
-      <c r="AB6" s="77">
+      <c r="AB6" s="79">
         <f t="shared" si="2"/>
         <v>135367705.93</v>
       </c>
-      <c r="AC6" s="74">
+      <c r="AC6" s="76">
         <f>(AB6-AB7)/AB7</f>
         <v>1.23851987887478</v>
       </c>
-      <c r="AE6" s="92">
+      <c r="AE6" s="94">
         <v>228734977.75</v>
       </c>
-      <c r="AF6" s="74">
+      <c r="AF6" s="76">
         <f>(AE6-AE7)/AE7</f>
         <v>0.545729046437287</v>
       </c>
-      <c r="AG6" s="92">
+      <c r="AG6" s="94">
         <v>3345408.95</v>
       </c>
-      <c r="AN6" s="74">
+      <c r="AN6" s="76">
         <f t="shared" si="3"/>
         <v>0.507395165857062</v>
       </c>
-      <c r="AO6" s="74">
+      <c r="AO6" s="76">
         <f t="shared" si="4"/>
         <v>1.71444426206064</v>
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="85"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="14">
         <v>2018</v>
       </c>
@@ -2285,52 +2405,52 @@
       <c r="H7" s="17">
         <v>260472684.71</v>
       </c>
-      <c r="M7" s="92">
+      <c r="M7" s="94">
         <v>4000000</v>
       </c>
-      <c r="N7" s="92">
+      <c r="N7" s="94">
         <v>39000000</v>
       </c>
-      <c r="W7" s="92">
+      <c r="W7" s="94">
         <v>243000715.17</v>
       </c>
-      <c r="Z7" s="76">
+      <c r="Z7" s="78">
         <f t="shared" si="0"/>
         <v>43000000</v>
       </c>
-      <c r="AA7" s="76">
+      <c r="AA7" s="78">
         <f t="shared" si="1"/>
         <v>243000715.17</v>
       </c>
-      <c r="AB7" s="77">
+      <c r="AB7" s="79">
         <f t="shared" si="2"/>
         <v>60471969.5400001</v>
       </c>
-      <c r="AC7" s="74">
+      <c r="AC7" s="76">
         <f>(AB7-AB8)/AB8</f>
         <v>4.30487724292338</v>
       </c>
-      <c r="AE7" s="92">
+      <c r="AE7" s="94">
         <v>147978701.88</v>
       </c>
-      <c r="AF7" s="74">
+      <c r="AF7" s="76">
         <f>(AE7-AE8)/AE8</f>
         <v>0.252672264816477</v>
       </c>
-      <c r="AG7" s="92">
+      <c r="AG7" s="94">
         <v>2226270.2</v>
       </c>
-      <c r="AN7" s="74">
+      <c r="AN7" s="76">
         <f t="shared" si="3"/>
         <v>0.494953844770367</v>
       </c>
-      <c r="AO7" s="74">
+      <c r="AO7" s="76">
         <f t="shared" si="4"/>
         <v>2.48387762499855</v>
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="85"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="14">
         <v>2017</v>
       </c>
@@ -2343,96 +2463,96 @@
       <c r="H8" s="17">
         <v>188242134.75</v>
       </c>
-      <c r="M8" s="92">
+      <c r="M8" s="94">
         <v>4000000</v>
       </c>
-      <c r="N8" s="92">
+      <c r="N8" s="94">
         <v>30500000</v>
       </c>
-      <c r="W8" s="92">
+      <c r="W8" s="94">
         <v>211342819.22</v>
       </c>
-      <c r="Z8" s="76">
+      <c r="Z8" s="78">
         <f t="shared" si="0"/>
         <v>34500000</v>
       </c>
-      <c r="AA8" s="76">
+      <c r="AA8" s="78">
         <f t="shared" si="1"/>
         <v>211342819.22</v>
       </c>
-      <c r="AB8" s="77">
+      <c r="AB8" s="79">
         <f t="shared" si="2"/>
         <v>11399315.53</v>
       </c>
-      <c r="AE8" s="92">
+      <c r="AE8" s="94">
         <v>118130420.89</v>
       </c>
-      <c r="AG8" s="92">
+      <c r="AG8" s="94">
         <v>2431512.18</v>
       </c>
-      <c r="AN8" s="74">
+      <c r="AN8" s="76">
         <f t="shared" si="3"/>
         <v>0.541262357951788</v>
       </c>
-      <c r="AO8" s="74">
+      <c r="AO8" s="76">
         <f t="shared" si="4"/>
         <v>10.5762431746637</v>
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="85"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="14">
         <v>2016</v>
       </c>
-      <c r="AN9" s="74" t="e">
+      <c r="AN9" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="85"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="14">
         <v>2015</v>
       </c>
-      <c r="AN10" s="74" t="e">
+      <c r="AN10" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="85"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="14">
         <v>2014</v>
       </c>
-      <c r="AN11" s="74" t="e">
+      <c r="AN11" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="85"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="14">
         <v>2013</v>
       </c>
-      <c r="AN12" s="74" t="e">
+      <c r="AN12" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="86"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="14">
         <v>2012</v>
       </c>
-      <c r="AH13" s="74"/>
-      <c r="AJ13" s="74"/>
-      <c r="AN13" s="74" t="e">
+      <c r="AH13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AN13" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="86" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="14">
@@ -2447,64 +2567,64 @@
       <c r="H14" s="17">
         <v>16948889697.69</v>
       </c>
-      <c r="L14" s="92">
+      <c r="L14" s="94">
         <v>742652495.7</v>
       </c>
-      <c r="N14" s="92">
+      <c r="N14" s="94">
         <v>12186394.91</v>
       </c>
-      <c r="S14" s="92">
+      <c r="S14" s="94">
         <v>1880144644.14</v>
       </c>
-      <c r="T14" s="92">
+      <c r="T14" s="94">
         <v>921897223.15</v>
       </c>
-      <c r="U14" s="92">
+      <c r="U14" s="94">
         <v>2788812386.06</v>
       </c>
-      <c r="W14" s="92">
+      <c r="W14" s="94">
         <v>3280167249.76</v>
       </c>
-      <c r="Y14" s="92">
+      <c r="Y14" s="94">
         <v>4657152857.47</v>
       </c>
-      <c r="Z14" s="76">
+      <c r="Z14" s="78">
         <f t="shared" ref="Z14:Z21" si="5">SUM(I14:P14)</f>
         <v>754838890.61</v>
       </c>
-      <c r="AA14" s="76">
+      <c r="AA14" s="78">
         <f t="shared" ref="AA14:AA21" si="6">SUM(Q14:Y14)</f>
         <v>13528174360.58</v>
       </c>
-      <c r="AB14" s="77">
+      <c r="AB14" s="79">
         <f t="shared" ref="AB14:AB21" si="7">(G14+Z14-AA14)</f>
         <v>4522681852.96</v>
       </c>
-      <c r="AC14" s="74">
+      <c r="AC14" s="76">
         <f>(AB14-AB15)/AB15</f>
         <v>-0.197825218581472</v>
       </c>
-      <c r="AE14" s="92">
+      <c r="AE14" s="94">
         <v>3506816648.23</v>
       </c>
-      <c r="AF14" s="74">
+      <c r="AF14" s="76">
         <f t="shared" ref="AF14:AF20" si="8">(AE14-AE15)/AE15</f>
         <v>-0.547216033820277</v>
       </c>
-      <c r="AG14" s="92">
+      <c r="AG14" s="94">
         <v>-109962286.55</v>
       </c>
-      <c r="AN14" s="114">
+      <c r="AN14" s="116">
         <f t="shared" si="3"/>
         <v>0.188182450820921</v>
       </c>
-      <c r="AO14" s="74">
+      <c r="AO14" s="76">
         <f t="shared" ref="AO14:AO21" si="9">(AE14+AG14)/(G14+Z14-AA14)</f>
         <v>0.751070818624315</v>
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" s="85"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="14">
         <v>2021</v>
       </c>
@@ -2517,64 +2637,64 @@
       <c r="H15" s="17">
         <v>18379430976.51</v>
       </c>
-      <c r="L15" s="92">
+      <c r="L15" s="94">
         <v>812957201.36</v>
       </c>
-      <c r="N15" s="92">
+      <c r="N15" s="94">
         <v>20838320.89</v>
       </c>
-      <c r="S15" s="92">
+      <c r="S15" s="94">
         <v>1600082971.48</v>
       </c>
-      <c r="T15" s="92">
+      <c r="T15" s="94">
         <v>1323030471.62</v>
       </c>
-      <c r="U15" s="92">
+      <c r="U15" s="94">
         <v>3217641031.1</v>
       </c>
-      <c r="W15" s="92">
+      <c r="W15" s="94">
         <v>4295642365.99</v>
       </c>
-      <c r="Y15" s="92">
+      <c r="Y15" s="94">
         <v>3442112702.46</v>
       </c>
-      <c r="Z15" s="76">
+      <c r="Z15" s="78">
         <f t="shared" si="5"/>
         <v>833795522.25</v>
       </c>
-      <c r="AA15" s="76">
+      <c r="AA15" s="78">
         <f t="shared" si="6"/>
         <v>13878509542.65</v>
       </c>
-      <c r="AB15" s="77">
+      <c r="AB15" s="79">
         <f t="shared" si="7"/>
         <v>5638025474.9</v>
       </c>
-      <c r="AC15" s="74">
+      <c r="AC15" s="76">
         <f t="shared" ref="AC15:AC20" si="10">(AB15-AB16)/AB16</f>
         <v>-0.135786566313983</v>
       </c>
-      <c r="AE15" s="92">
+      <c r="AE15" s="94">
         <v>7745010667.71</v>
       </c>
-      <c r="AF15" s="74">
+      <c r="AF15" s="76">
         <f t="shared" si="8"/>
         <v>0.524596689325575</v>
       </c>
-      <c r="AG15" s="92">
+      <c r="AG15" s="94">
         <v>-168683642.15</v>
       </c>
-      <c r="AN15" s="74">
+      <c r="AN15" s="76">
         <f t="shared" si="3"/>
         <v>0.388200416659365</v>
       </c>
-      <c r="AO15" s="114">
+      <c r="AO15" s="116">
         <f t="shared" si="9"/>
         <v>1.34379084650985</v>
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" s="85"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="14">
         <v>2020</v>
       </c>
@@ -2587,61 +2707,61 @@
       <c r="H16" s="17">
         <v>17016986250.45</v>
       </c>
-      <c r="N16" s="92">
+      <c r="N16" s="94">
         <v>50310738.14</v>
       </c>
-      <c r="S16" s="92">
+      <c r="S16" s="94">
         <v>1372869799.62</v>
       </c>
-      <c r="T16" s="92">
+      <c r="T16" s="94">
         <v>1078844317.74</v>
       </c>
-      <c r="U16" s="92">
+      <c r="U16" s="94">
         <v>2140888805.9</v>
       </c>
-      <c r="W16" s="92">
+      <c r="W16" s="94">
         <v>4730286378.96</v>
       </c>
-      <c r="Y16" s="92">
+      <c r="Y16" s="94">
         <v>1475959904.22</v>
       </c>
-      <c r="Z16" s="76">
+      <c r="Z16" s="78">
         <f t="shared" si="5"/>
         <v>50310738.14</v>
       </c>
-      <c r="AA16" s="76">
+      <c r="AA16" s="78">
         <f t="shared" si="6"/>
         <v>10798849206.44</v>
       </c>
-      <c r="AB16" s="77">
+      <c r="AB16" s="79">
         <f t="shared" si="7"/>
         <v>6523880855.28</v>
       </c>
-      <c r="AC16" s="74">
+      <c r="AC16" s="76">
         <f t="shared" si="10"/>
         <v>0.612733810949541</v>
       </c>
-      <c r="AE16" s="92">
+      <c r="AE16" s="94">
         <v>5080039017.49</v>
       </c>
-      <c r="AF16" s="74">
+      <c r="AF16" s="76">
         <f t="shared" si="8"/>
         <v>1.147085932145</v>
       </c>
-      <c r="AG16" s="92">
+      <c r="AG16" s="94">
         <v>-126605815.87</v>
       </c>
-      <c r="AN16" s="74">
+      <c r="AN16" s="76">
         <f t="shared" si="3"/>
         <v>0.285949915744872</v>
       </c>
-      <c r="AO16" s="74">
+      <c r="AO16" s="76">
         <f t="shared" si="9"/>
         <v>0.759277079318672</v>
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" s="85"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="14">
         <v>2019</v>
       </c>
@@ -2654,61 +2774,61 @@
       <c r="H17" s="17">
         <v>13778408776.65</v>
       </c>
-      <c r="N17" s="92">
+      <c r="N17" s="94">
         <v>50609581.06</v>
       </c>
-      <c r="S17" s="92">
+      <c r="S17" s="94">
         <v>1117250673.84</v>
       </c>
-      <c r="T17" s="92">
+      <c r="T17" s="94">
         <v>849464175.16</v>
       </c>
-      <c r="U17" s="92">
+      <c r="U17" s="94">
         <v>1842510202.69</v>
       </c>
-      <c r="W17" s="92">
+      <c r="W17" s="94">
         <v>3860521939.04</v>
       </c>
-      <c r="Y17" s="92">
+      <c r="Y17" s="94">
         <v>2341983125.78</v>
       </c>
-      <c r="Z17" s="76">
+      <c r="Z17" s="78">
         <f t="shared" si="5"/>
         <v>50609581.06</v>
       </c>
-      <c r="AA17" s="76">
+      <c r="AA17" s="78">
         <f t="shared" si="6"/>
         <v>10011730116.51</v>
       </c>
-      <c r="AB17" s="77">
+      <c r="AB17" s="79">
         <f t="shared" si="7"/>
         <v>4045231030.06</v>
       </c>
-      <c r="AC17" s="74">
+      <c r="AC17" s="76">
         <f t="shared" si="10"/>
         <v>-0.492517335142773</v>
       </c>
-      <c r="AE17" s="92">
+      <c r="AE17" s="94">
         <v>2366015696.64</v>
       </c>
-      <c r="AF17" s="74">
+      <c r="AF17" s="76">
         <f t="shared" si="8"/>
         <v>-0.659727058228938</v>
       </c>
-      <c r="AG17" s="92">
+      <c r="AG17" s="94">
         <v>-19689880.97</v>
       </c>
-      <c r="AN17" s="114">
+      <c r="AN17" s="116">
         <f t="shared" si="3"/>
         <v>0.166915579491555</v>
       </c>
-      <c r="AO17" s="114">
+      <c r="AO17" s="116">
         <f t="shared" si="9"/>
         <v>0.580022697896491</v>
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="85"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="14">
         <v>2018</v>
       </c>
@@ -2721,61 +2841,61 @@
       <c r="H18" s="17">
         <v>14201141091.65</v>
       </c>
-      <c r="J18" s="92">
+      <c r="J18" s="94">
         <v>892216000</v>
       </c>
-      <c r="N18" s="92">
+      <c r="N18" s="94">
         <v>47455135.66</v>
       </c>
-      <c r="Q18" s="92">
+      <c r="Q18" s="94">
         <v>2902358986.81</v>
       </c>
-      <c r="S18" s="92">
+      <c r="S18" s="94">
         <v>792534760.28</v>
       </c>
-      <c r="W18" s="92">
+      <c r="W18" s="94">
         <v>3671590986.1</v>
       </c>
-      <c r="Z18" s="76">
+      <c r="Z18" s="78">
         <f t="shared" si="5"/>
         <v>939671135.66</v>
       </c>
-      <c r="AA18" s="76">
+      <c r="AA18" s="78">
         <f t="shared" si="6"/>
         <v>7366484733.19</v>
       </c>
-      <c r="AB18" s="77">
+      <c r="AB18" s="79">
         <f t="shared" si="7"/>
         <v>7971170859.99</v>
       </c>
-      <c r="AC18" s="74">
+      <c r="AC18" s="76">
         <f t="shared" si="10"/>
         <v>0.705321880354078</v>
       </c>
-      <c r="AD18" s="78">
+      <c r="AD18" s="80">
         <v>6941932267.09</v>
       </c>
-      <c r="AE18" s="92">
+      <c r="AE18" s="94">
         <v>6953287805.74</v>
       </c>
-      <c r="AF18" s="74">
+      <c r="AF18" s="76">
         <f t="shared" si="8"/>
         <v>-0.0401505555957367</v>
       </c>
-      <c r="AG18" s="92">
+      <c r="AG18" s="94">
         <v>-93655308.74</v>
       </c>
-      <c r="AN18" s="74">
+      <c r="AN18" s="76">
         <f t="shared" si="3"/>
         <v>0.447241265480637</v>
       </c>
-      <c r="AO18" s="74">
+      <c r="AO18" s="76">
         <f t="shared" si="9"/>
         <v>0.860555195401822</v>
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" s="85"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="14">
         <v>2017</v>
       </c>
@@ -2788,58 +2908,58 @@
       <c r="H19" s="17">
         <v>10372574413.65</v>
       </c>
-      <c r="J19" s="92">
+      <c r="J19" s="94">
         <v>849446000</v>
       </c>
-      <c r="Q19" s="92">
+      <c r="Q19" s="94">
         <v>2069114199</v>
       </c>
-      <c r="S19" s="92">
+      <c r="S19" s="94">
         <v>733660143.69</v>
       </c>
-      <c r="W19" s="92">
+      <c r="W19" s="94">
         <v>3930262816.1</v>
       </c>
-      <c r="Z19" s="76">
+      <c r="Z19" s="78">
         <f t="shared" si="5"/>
         <v>849446000</v>
       </c>
-      <c r="AA19" s="76">
+      <c r="AA19" s="78">
         <f t="shared" si="6"/>
         <v>6733037158.79</v>
       </c>
-      <c r="AB19" s="77">
+      <c r="AB19" s="79">
         <f t="shared" si="7"/>
         <v>4674291083.59</v>
       </c>
-      <c r="AC19" s="74">
+      <c r="AC19" s="76">
         <f t="shared" si="10"/>
         <v>0.525383354040252</v>
       </c>
-      <c r="AD19" s="78">
+      <c r="AD19" s="80">
         <v>7231724556.89</v>
       </c>
-      <c r="AE19" s="92">
+      <c r="AE19" s="94">
         <v>7244144221.03</v>
       </c>
-      <c r="AF19" s="74">
+      <c r="AF19" s="76">
         <f t="shared" si="8"/>
         <v>0.683719974111435</v>
       </c>
-      <c r="AG19" s="92">
+      <c r="AG19" s="94">
         <v>-128343374.78</v>
       </c>
-      <c r="AN19" s="74">
+      <c r="AN19" s="76">
         <f t="shared" si="3"/>
         <v>0.623792065508705</v>
       </c>
-      <c r="AO19" s="74">
+      <c r="AO19" s="76">
         <f t="shared" si="9"/>
         <v>1.52232728321764</v>
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" s="85"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="14">
         <v>2016</v>
       </c>
@@ -2852,55 +2972,55 @@
       <c r="H20" s="17">
         <v>7990926198.4</v>
       </c>
-      <c r="N20" s="92">
+      <c r="N20" s="94">
         <v>652078000</v>
       </c>
-      <c r="Q20" s="92">
+      <c r="Q20" s="94">
         <v>1295839436</v>
       </c>
-      <c r="W20" s="92">
+      <c r="W20" s="94">
         <v>4445486663.36</v>
       </c>
-      <c r="Z20" s="76">
+      <c r="Z20" s="78">
         <f t="shared" si="5"/>
         <v>652078000</v>
       </c>
-      <c r="AA20" s="76">
+      <c r="AA20" s="78">
         <f t="shared" si="6"/>
         <v>5741326099.36</v>
       </c>
-      <c r="AB20" s="77">
+      <c r="AB20" s="79">
         <f t="shared" si="7"/>
         <v>3064338594.76</v>
       </c>
-      <c r="AC20" s="74">
+      <c r="AC20" s="76">
         <f t="shared" si="10"/>
         <v>1.89211868946456</v>
       </c>
-      <c r="AD20" s="78">
+      <c r="AD20" s="80">
         <v>5316257642.3</v>
       </c>
-      <c r="AE20" s="92">
+      <c r="AE20" s="94">
         <v>4302463789.95</v>
       </c>
-      <c r="AF20" s="74">
+      <c r="AF20" s="76">
         <f t="shared" si="8"/>
         <v>0.230118143454922</v>
       </c>
-      <c r="AG20" s="92">
+      <c r="AG20" s="94">
         <v>-142063223.63</v>
       </c>
-      <c r="AN20" s="74">
+      <c r="AN20" s="76">
         <f t="shared" si="3"/>
         <v>0.472468656352327</v>
       </c>
-      <c r="AO20" s="74">
+      <c r="AO20" s="76">
         <f t="shared" si="9"/>
         <v>1.35768304894056</v>
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" s="85"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="14">
         <v>2015</v>
       </c>
@@ -2913,183 +3033,183 @@
       <c r="H21" s="17">
         <v>4598731084.44</v>
       </c>
-      <c r="Q21" s="92">
+      <c r="Q21" s="94">
         <v>450706819.95</v>
       </c>
-      <c r="S21" s="92">
+      <c r="S21" s="94">
         <v>49342592.13</v>
       </c>
-      <c r="W21" s="92">
+      <c r="W21" s="94">
         <v>3176463258.75</v>
       </c>
-      <c r="Z21" s="76">
+      <c r="Z21" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="76">
+      <c r="AA21" s="78">
         <f t="shared" si="6"/>
         <v>3676512670.83</v>
       </c>
-      <c r="AB21" s="77">
+      <c r="AB21" s="79">
         <f t="shared" si="7"/>
         <v>1059548007.46</v>
       </c>
-      <c r="AD21" s="78">
+      <c r="AD21" s="80">
         <v>3967955684.39</v>
       </c>
-      <c r="AE21" s="92">
+      <c r="AE21" s="94">
         <v>3497602090.37</v>
       </c>
-      <c r="AG21" s="92">
+      <c r="AG21" s="94">
         <v>-129330393.9</v>
       </c>
-      <c r="AN21" s="74">
+      <c r="AN21" s="76">
         <f t="shared" si="3"/>
         <v>0.711196905037574</v>
       </c>
-      <c r="AO21" s="74">
+      <c r="AO21" s="76">
         <f t="shared" si="9"/>
         <v>3.17897034655804</v>
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="85"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="14">
         <v>2014</v>
       </c>
-      <c r="AN22" s="74" t="e">
+      <c r="AN22" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="85"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="14">
         <v>2013</v>
       </c>
-      <c r="AN23" s="74" t="e">
+      <c r="AN23" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="86"/>
+      <c r="A24" s="88"/>
       <c r="B24" s="14">
         <v>2012</v>
       </c>
-      <c r="AN24" s="74" t="e">
+      <c r="AN24" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="86" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="14">
         <v>2022</v>
       </c>
-      <c r="AN25" s="74" t="e">
+      <c r="AN25" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="85"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="14">
         <v>2021</v>
       </c>
-      <c r="AN26" s="74" t="e">
+      <c r="AN26" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="85"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="14">
         <v>2020</v>
       </c>
-      <c r="AN27" s="74" t="e">
+      <c r="AN27" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="85"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="14">
         <v>2019</v>
       </c>
-      <c r="AN28" s="74" t="e">
+      <c r="AN28" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="85"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="14">
         <v>2018</v>
       </c>
-      <c r="AN29" s="74" t="e">
+      <c r="AN29" s="76" t="e">
         <f t="shared" ref="AN29:AN40" si="11">(AE29+AG29)/(G29+Z29)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="85"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="14">
         <v>2017</v>
       </c>
-      <c r="AN30" s="74" t="e">
+      <c r="AN30" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="85"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="14">
         <v>2016</v>
       </c>
-      <c r="AN31" s="74" t="e">
+      <c r="AN31" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" s="85"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="14">
         <v>2015</v>
       </c>
-      <c r="AN32" s="74" t="e">
+      <c r="AN32" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" s="85"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="14">
         <v>2014</v>
       </c>
-      <c r="AN33" s="74" t="e">
+      <c r="AN33" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" s="85"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="14">
         <v>2013</v>
       </c>
-      <c r="AN34" s="74" t="e">
+      <c r="AN34" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" s="85"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="14">
         <v>2012</v>
       </c>
-      <c r="AN35" s="74" t="e">
+      <c r="AN35" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -3098,7 +3218,7 @@
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AN36" s="74" t="e">
+      <c r="AN36" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -3107,7 +3227,7 @@
       <c r="A37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AN37" s="74" t="e">
+      <c r="AN37" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -3116,7 +3236,7 @@
       <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AN38" s="74" t="e">
+      <c r="AN38" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -3125,7 +3245,7 @@
       <c r="A39" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AN39" s="74" t="e">
+      <c r="AN39" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -3134,7 +3254,7 @@
       <c r="A40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AN40" s="74" t="e">
+      <c r="AN40" s="76" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -3179,14 +3299,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:BW16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="BD10" sqref="BD10:BD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3196,34 +3316,38 @@
     <col min="6" max="7" width="19.8461538461538" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.8461538461538" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.6923076923077" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.7692307692308" style="2"/>
-    <col min="11" max="12" width="29.6923076923077" style="2" customWidth="1"/>
-    <col min="13" max="13" width="39.3846153846154" style="2" customWidth="1"/>
-    <col min="14" max="14" width="37" style="2" customWidth="1"/>
-    <col min="15" max="15" width="29.6923076923077" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.4615384615385" style="2" customWidth="1"/>
-    <col min="17" max="18" width="24.8461538461538" customWidth="1"/>
-    <col min="19" max="19" width="41.8461538461538" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.1538461538462" style="2" customWidth="1"/>
-    <col min="21" max="21" width="24.8461538461538" style="2" customWidth="1"/>
-    <col min="22" max="22" width="20" customWidth="1"/>
-    <col min="24" max="24" width="15.1538461538462"/>
-    <col min="25" max="25" width="16.7692307692308"/>
-    <col min="26" max="27" width="14"/>
-    <col min="28" max="29" width="15.1538461538462" style="2" customWidth="1"/>
-    <col min="30" max="30" width="19.8461538461538" style="5" customWidth="1"/>
-    <col min="31" max="31" width="24.8461538461538" style="6" customWidth="1"/>
-    <col min="32" max="32" width="12.9230769230769" style="2"/>
-    <col min="33" max="33" width="17.6153846153846" style="7" customWidth="1"/>
-    <col min="34" max="34" width="37" style="7" customWidth="1"/>
-    <col min="35" max="35" width="29.6923076923077" style="7" customWidth="1"/>
-    <col min="36" max="36" width="10.3076923076923" style="8" customWidth="1"/>
-    <col min="37" max="37" width="15.1538461538462" style="8" customWidth="1"/>
-    <col min="38" max="38" width="41.8461538461538" style="8" customWidth="1"/>
-    <col min="39" max="39" width="29.6923076923077" style="8" customWidth="1"/>
+    <col min="10" max="22" width="16.7692307692308" style="2"/>
+    <col min="23" max="24" width="24.8461538461538" style="2" customWidth="1"/>
+    <col min="25" max="25" width="29.6923076923077" style="2" customWidth="1"/>
+    <col min="26" max="26" width="34.5384615384615" style="2" customWidth="1"/>
+    <col min="27" max="27" width="37" style="2" customWidth="1"/>
+    <col min="28" max="28" width="44.2307692307692" style="2" customWidth="1"/>
+    <col min="29" max="29" width="41.8461538461538" style="2" customWidth="1"/>
+    <col min="30" max="30" width="39.3846153846154" style="2" customWidth="1"/>
+    <col min="31" max="31" width="49.0769230769231" style="2" customWidth="1"/>
+    <col min="32" max="33" width="61.2307692307692" style="2" customWidth="1"/>
+    <col min="34" max="34" width="29.6923076923077" style="2" customWidth="1"/>
+    <col min="35" max="35" width="46.6923076923077" style="2" customWidth="1"/>
+    <col min="36" max="36" width="44.2307692307692" style="2" customWidth="1"/>
+    <col min="37" max="37" width="73.3076923076923" style="2" customWidth="1"/>
+    <col min="38" max="58" width="29.6923076923077" style="2" customWidth="1"/>
+    <col min="60" max="60" width="15.1538461538462"/>
+    <col min="61" max="61" width="16.7692307692308"/>
+    <col min="62" max="63" width="14"/>
+    <col min="64" max="65" width="15.1538461538462" style="2" customWidth="1"/>
+    <col min="66" max="66" width="19.8461538461538" style="5" customWidth="1"/>
+    <col min="67" max="67" width="24.8461538461538" style="6" customWidth="1"/>
+    <col min="68" max="68" width="12.9230769230769" style="2"/>
+    <col min="69" max="69" width="17.6153846153846" style="7" customWidth="1"/>
+    <col min="70" max="70" width="37" style="7" customWidth="1"/>
+    <col min="71" max="71" width="29.6923076923077" style="7" customWidth="1"/>
+    <col min="72" max="72" width="10.3076923076923" style="8" customWidth="1"/>
+    <col min="73" max="73" width="15.1538461538462" style="8" customWidth="1"/>
+    <col min="74" max="74" width="41.8461538461538" style="8" customWidth="1"/>
+    <col min="75" max="75" width="29.6923076923077" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:39">
+    <row r="1" ht="45" customHeight="1" spans="1:75">
       <c r="A1" s="9" t="s">
         <v>51</v>
       </c>
@@ -3254,55 +3378,107 @@
       <c r="J1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="14" t="s">
+      <c r="K1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="49" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="50" t="s">
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="61" t="s">
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="62" t="s">
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" s="62" t="s">
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="BH1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO1" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ1" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR1" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS1" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT1" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
     </row>
-    <row r="2" ht="68" spans="1:39">
+    <row r="2" ht="68" spans="1:75">
       <c r="A2" s="9"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -3314,80 +3490,188 @@
       <c r="I2" s="33"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM2" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="66"/>
+      <c r="BS2" s="66"/>
+      <c r="BT2" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="BU2" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="BV2" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="BW2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK2" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="73" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:75">
       <c r="A3" s="14">
         <v>2023</v>
       </c>
@@ -3404,7 +3688,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="38"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
@@ -3413,24 +3697,60 @@
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
       <c r="W3" s="23"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="55"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="23"/>
+      <c r="BR3" s="67"/>
+      <c r="BS3" s="68"/>
+      <c r="BT3" s="69"/>
+      <c r="BU3" s="71"/>
+      <c r="BV3" s="71"/>
+      <c r="BW3" s="71"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:75">
       <c r="A4" s="14">
         <v>2022</v>
       </c>
@@ -3462,7 +3782,9 @@
         <v>-0.301494283033258</v>
       </c>
       <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="K4" s="18">
+        <v>228421146.24</v>
+      </c>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -3473,65 +3795,161 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="43">
+      <c r="V4" s="18">
+        <v>651719608.65</v>
+      </c>
+      <c r="W4" s="18">
+        <v>42280691.12</v>
+      </c>
+      <c r="X4" s="18">
+        <v>21010703.23</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>35012.4</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>300962585.69</v>
+      </c>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18">
+        <v>187550671.3</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>135000</v>
+      </c>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18">
+        <v>1490086.96</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>83515309.29</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>-18198608.59</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>-22331360.51</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>-471280806.14</v>
+      </c>
+      <c r="AN4" s="18">
+        <v>-386479262.19</v>
+      </c>
+      <c r="AO4" s="18">
+        <v>-1029373.78</v>
+      </c>
+      <c r="AP4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="18">
+        <v>16167929.32</v>
+      </c>
+      <c r="AT4" s="18">
+        <v>10667.03</v>
+      </c>
+      <c r="AU4" s="18">
+        <v>-887554.53</v>
+      </c>
+      <c r="AV4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18">
+        <v>339060.88</v>
+      </c>
+      <c r="AZ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="18">
+        <v>3578158.9</v>
+      </c>
+      <c r="BB4" s="18">
+        <v>8502319.82</v>
+      </c>
+      <c r="BC4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="18">
+        <v>349006.54</v>
+      </c>
+      <c r="BF4" s="18">
+        <v>2275305.87</v>
+      </c>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="44">
         <v>397731439.74</v>
       </c>
-      <c r="Y4" s="43">
+      <c r="BI4" s="44">
         <v>2598984168.23</v>
       </c>
-      <c r="Z4" s="43">
+      <c r="BJ4" s="44">
         <v>4404944.61</v>
       </c>
-      <c r="AA4" s="43">
+      <c r="BK4" s="44">
         <v>12483753.97</v>
       </c>
-      <c r="AB4" s="46">
-        <f>SUM(X4:AA4)</f>
+      <c r="BL4" s="47">
+        <f>SUM(BH4:BK4)</f>
         <v>3013604306.55</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="BM4" s="18">
         <v>95172410.27</v>
       </c>
-      <c r="AD4" s="56">
+      <c r="BN4" s="58">
         <v>14442199726</v>
       </c>
-      <c r="AE4" s="35">
-        <f t="shared" ref="AE4:AE9" si="2">(AD4-AD5)/AD5</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="57">
-        <f>F4/AD4</f>
+      <c r="BO4" s="35">
+        <f t="shared" ref="BO4:BO9" si="2">(BN4-BN5)/BN5</f>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="59">
+        <f>F4/BN4</f>
         <v>0.196590721843338</v>
       </c>
-      <c r="AG4" s="57">
-        <f>(F4+AB4-AC4)/AD4</f>
+      <c r="BQ4" s="59">
+        <f>(F4+BL4-BM4)/BN4</f>
         <v>0.398667410412186</v>
       </c>
-      <c r="AH4" s="57">
-        <f>(F4+AB4-$AC$12)/AD4</f>
+      <c r="BR4" s="59">
+        <f>(F4+BL4-$BM$12)/BN4</f>
         <v>0.380080968339463</v>
       </c>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="69">
-        <f>AF4*(C4/B4)</f>
+      <c r="BS4" s="70"/>
+      <c r="BT4" s="71">
+        <f>BP4*(C4/B4)</f>
         <v>0.192645185183449</v>
       </c>
-      <c r="AK4" s="69">
-        <f>AG4*(C4/B4)</f>
+      <c r="BU4" s="71">
+        <f>BQ4*(C4/B4)</f>
         <v>0.3906662348321</v>
       </c>
-      <c r="AL4" s="69">
-        <f>AH4*(C4/B4)</f>
+      <c r="BV4" s="71">
+        <f>BR4*(C4/B4)</f>
         <v>0.372452818952512</v>
       </c>
-      <c r="AM4" s="69">
-        <f>AI4*(C4/B4)</f>
+      <c r="BW4" s="71">
+        <f>BS4*(C4/B4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:75">
       <c r="A5" s="14">
         <v>2021</v>
       </c>
@@ -3563,7 +3981,9 @@
         <v>0.8360446166522</v>
       </c>
       <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="K5" s="18">
+        <v>279391018.11</v>
+      </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
@@ -3574,65 +3994,169 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="V5" s="18">
+        <v>517356204.33</v>
+      </c>
+      <c r="W5" s="18">
+        <v>57325259.1</v>
+      </c>
       <c r="X5" s="18">
+        <v>11259010.87</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>11913.37</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>265413246</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>-1593633.62</v>
+      </c>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18">
+        <v>58778137.79</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>108000</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>4262289.89</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18">
+        <v>-61040980</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>2238363.28</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>41452332.44</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>221828231.52</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>-164651474.37</v>
+      </c>
+      <c r="AO5" s="18">
+        <v>-175016.97</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="18">
+        <v>-76730697.94</v>
+      </c>
+      <c r="AS5" s="18">
+        <v>5649582.97</v>
+      </c>
+      <c r="AT5" s="18">
+        <v>2596039.55</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>2392082.69</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="18">
+        <v>200000</v>
+      </c>
+      <c r="AY5" s="18">
+        <v>1879182.16</v>
+      </c>
+      <c r="AZ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="18">
+        <v>2026448.81</v>
+      </c>
+      <c r="BB5" s="18">
+        <v>8576954.46</v>
+      </c>
+      <c r="BC5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="18">
+        <v>1163991.9</v>
+      </c>
+      <c r="BF5" s="18">
+        <v>6521921.21</v>
+      </c>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18">
         <v>473783883.16</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="BI5" s="18">
         <v>2667107504.63</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="BJ5" s="18">
         <v>5392275.12</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="BK5" s="18">
         <v>10618717.79</v>
       </c>
-      <c r="AB5" s="46">
-        <f>SUM(X5:AA5)</f>
+      <c r="BL5" s="47">
+        <f>SUM(BH5:BK5)</f>
         <v>3156902380.7</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="BM5" s="18">
         <v>249947082.71</v>
       </c>
-      <c r="AD5" s="56">
+      <c r="BN5" s="58">
         <v>14442199726</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="BO5" s="35">
         <f t="shared" si="2"/>
         <v>-0.0160568521819283</v>
       </c>
-      <c r="AF5" s="57">
-        <f t="shared" ref="AF5:AF11" si="4">F5/AD5</f>
+      <c r="BP5" s="59">
+        <f t="shared" ref="BP5:BP11" si="4">F5/BN5</f>
         <v>0.423178440390722</v>
       </c>
-      <c r="AG5" s="57">
-        <f t="shared" ref="AG5:AG11" si="5">(F5+AB5-AC5)/AD5</f>
+      <c r="BQ5" s="59">
+        <f t="shared" ref="BQ5:BQ11" si="5">(F5+BL5-BM5)/BN5</f>
         <v>0.62446047173922</v>
       </c>
-      <c r="AH5" s="57">
-        <f t="shared" ref="AH5:AH11" si="6">(F5+AB5-$AC$12)/AD5</f>
+      <c r="BR5" s="59">
+        <f t="shared" ref="BR5:BR11" si="6">(F5+BL5-$BM$12)/BN5</f>
         <v>0.616590864731543</v>
       </c>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="69">
-        <f t="shared" ref="AJ5:AJ11" si="7">AF5*(C5/B5)</f>
+      <c r="BS5" s="70"/>
+      <c r="BT5" s="71">
+        <f t="shared" ref="BT5:BT11" si="7">BP5*(C5/B5)</f>
         <v>0.416308268809565</v>
       </c>
-      <c r="AK5" s="69">
-        <f t="shared" ref="AK5:AK11" si="8">AG5*(C5/B5)</f>
+      <c r="BU5" s="71">
+        <f t="shared" ref="BU5:BU11" si="8">BQ5*(C5/B5)</f>
         <v>0.614322548402347</v>
       </c>
-      <c r="AL5" s="69">
-        <f t="shared" ref="AL5:AL11" si="9">AH5*(C5/B5)</f>
+      <c r="BV5" s="71">
+        <f t="shared" ref="BV5:BV11" si="9">BR5*(C5/B5)</f>
         <v>0.606580702039492</v>
       </c>
-      <c r="AM5" s="69">
-        <f t="shared" ref="AM5:AM11" si="10">AI5*(C5/B5)</f>
+      <c r="BW5" s="71">
+        <f t="shared" ref="BW5:BW11" si="10">BS5*(C5/B5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:75">
       <c r="A6" s="14">
         <v>2020</v>
       </c>
@@ -3664,7 +4188,9 @@
         <v>0.522918324631967</v>
       </c>
       <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="K6" s="18">
+        <v>177555334.79</v>
+      </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -3675,63 +4201,167 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="V6" s="18">
+        <v>208341013.79</v>
+      </c>
+      <c r="W6" s="18">
+        <v>72370424.74</v>
+      </c>
       <c r="X6" s="18">
+        <v>20448331.2</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>2330.95</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>187530949.33</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>43379.5</v>
+      </c>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18">
+        <v>114137566.35</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>27382.43</v>
+      </c>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>3362301.55</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>3606949.78</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>-17191768.68</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>64188383.75</v>
+      </c>
+      <c r="AN6" s="18">
+        <v>-373887998.55</v>
+      </c>
+      <c r="AO6" s="18">
+        <v>4362409.74</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="18">
+        <v>14471973.38</v>
+      </c>
+      <c r="AT6" s="18">
+        <v>1025349.94</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="18">
+        <v>11556917.11</v>
+      </c>
+      <c r="AZ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="18">
+        <v>635993.92</v>
+      </c>
+      <c r="BB6" s="18">
+        <v>28792245.16</v>
+      </c>
+      <c r="BC6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="18">
+        <v>187484.91</v>
+      </c>
+      <c r="BE6" s="18">
+        <v>8888687.81</v>
+      </c>
+      <c r="BF6" s="18">
+        <v>6991201.32</v>
+      </c>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18">
         <v>477880003.67</v>
       </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18">
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18">
         <v>22875042.12</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="BK6" s="18">
         <v>10842879.42</v>
       </c>
-      <c r="AB6" s="46">
-        <f>SUM(X6:AA6)</f>
+      <c r="BL6" s="47">
+        <f>SUM(BH6:BK6)</f>
         <v>511597925.21</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="BM6" s="18">
         <v>61129824.87</v>
       </c>
-      <c r="AD6" s="56">
+      <c r="BN6" s="58">
         <v>14677880280</v>
       </c>
-      <c r="AE6" s="35">
+      <c r="BO6" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="57">
+      <c r="BP6" s="59">
         <f t="shared" si="4"/>
         <v>0.272579942440435</v>
       </c>
-      <c r="AG6" s="57">
+      <c r="BQ6" s="59">
         <f t="shared" si="5"/>
         <v>0.303270211862636</v>
       </c>
-      <c r="AH6" s="57">
+      <c r="BR6" s="59">
         <f t="shared" si="6"/>
         <v>0.282662897438485</v>
       </c>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="69">
+      <c r="BS6" s="70"/>
+      <c r="BT6" s="71">
         <f t="shared" si="7"/>
         <v>0.268548895540358</v>
       </c>
-      <c r="AK6" s="69">
+      <c r="BU6" s="71">
         <f t="shared" si="8"/>
         <v>0.298785302090957</v>
       </c>
-      <c r="AL6" s="69">
+      <c r="BV6" s="71">
         <f t="shared" si="9"/>
         <v>0.278482738816816</v>
       </c>
-      <c r="AM6" s="69">
+      <c r="BW6" s="71">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:75">
       <c r="A7" s="19">
         <v>2019</v>
       </c>
@@ -3763,7 +4393,9 @@
         <v>-0.0933087507194417</v>
       </c>
       <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="K7" s="18">
+        <v>78309143.64</v>
+      </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -3774,63 +4406,167 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
+      <c r="V7" s="18">
+        <v>686918319.39</v>
+      </c>
+      <c r="W7" s="18">
+        <v>31296242.67</v>
+      </c>
       <c r="X7" s="18">
+        <v>4686215.83</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>96231769.65</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18">
+        <v>92015818.15</v>
+      </c>
+      <c r="AE7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>27462764.78</v>
+      </c>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="18">
+        <v>2424049.41</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>25270255.74</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>-82757409.88</v>
+      </c>
+      <c r="AN7" s="18">
+        <v>-688240935.32</v>
+      </c>
+      <c r="AO7" s="18">
+        <v>-51685983.19</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="18">
+        <v>-20479112.11</v>
+      </c>
+      <c r="AU7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="18">
+        <v>547.01</v>
+      </c>
+      <c r="BA7" s="18">
+        <v>994633.68</v>
+      </c>
+      <c r="BB7" s="18">
+        <v>15550000</v>
+      </c>
+      <c r="BC7" s="18">
+        <v>484043.36</v>
+      </c>
+      <c r="BD7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="18">
+        <v>2811850.62</v>
+      </c>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18">
         <v>484781326.86</v>
       </c>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18">
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18">
         <v>15053067.23</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="BK7" s="18">
         <v>15382494.88</v>
       </c>
-      <c r="AB7" s="46">
-        <f>SUM(X7:AA7)</f>
+      <c r="BL7" s="47">
+        <f>SUM(BH7:BK7)</f>
         <v>515216888.97</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="BM7" s="18">
         <v>342638318.42</v>
       </c>
-      <c r="AD7" s="56">
+      <c r="BN7" s="58">
         <v>14677880280</v>
       </c>
-      <c r="AE7" s="35">
+      <c r="BO7" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="57">
+      <c r="BP7" s="59">
         <f t="shared" si="4"/>
         <v>0.126386036541511</v>
       </c>
-      <c r="AG7" s="57">
+      <c r="BQ7" s="59">
         <f t="shared" si="5"/>
         <v>0.138143767716438</v>
       </c>
-      <c r="AH7" s="57">
+      <c r="BR7" s="59">
         <f t="shared" si="6"/>
         <v>0.136715550558367</v>
       </c>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="69">
+      <c r="BS7" s="70"/>
+      <c r="BT7" s="71">
         <f t="shared" si="7"/>
         <v>0.124329199291104</v>
       </c>
-      <c r="AK7" s="69">
+      <c r="BU7" s="71">
         <f t="shared" si="8"/>
         <v>0.135895582275023</v>
       </c>
-      <c r="AL7" s="69">
+      <c r="BV7" s="71">
         <f t="shared" si="9"/>
         <v>0.134490608272073</v>
       </c>
-      <c r="AM7" s="69">
+      <c r="BW7" s="71">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:75">
       <c r="A8" s="19">
         <v>2018</v>
       </c>
@@ -3862,74 +4598,206 @@
         <v>-0.0898434998388674</v>
       </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="K8" s="18">
+        <v>142156448.99</v>
+      </c>
+      <c r="L8" s="18">
+        <v>433700000</v>
+      </c>
+      <c r="M8" s="18">
+        <v>316940000</v>
+      </c>
+      <c r="N8" s="18">
+        <v>41087000</v>
+      </c>
+      <c r="O8" s="18">
+        <v>18035436.58</v>
+      </c>
+      <c r="P8" s="18">
+        <v>13150000</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>10240000</v>
+      </c>
+      <c r="R8" s="18">
+        <v>1430683.76</v>
+      </c>
+      <c r="S8" s="18">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <v>37902546.84</v>
+      </c>
+      <c r="V8" s="18">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
       <c r="X8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>-27940285.93</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>21967435.67</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>3697471.97</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>-18256454.1</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>81687700.44</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>107187758.95</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="18">
+        <v>330408488.12</v>
+      </c>
+      <c r="AQ8" s="18">
+        <v>69632000</v>
+      </c>
+      <c r="AR8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="18">
+        <v>-11891085.06</v>
+      </c>
+      <c r="AU8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="18">
+        <v>4493112.46</v>
+      </c>
+      <c r="BB8" s="18">
+        <v>8790150</v>
+      </c>
+      <c r="BC8" s="18">
+        <v>6507420.85</v>
+      </c>
+      <c r="BD8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="18">
+        <v>551080.26</v>
+      </c>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18">
         <v>219590665.4</v>
       </c>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18">
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18">
         <v>5466105.09</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="BK8" s="18">
         <v>4905608.79</v>
       </c>
-      <c r="AB8" s="46">
-        <f>SUM(X8:AA8)</f>
+      <c r="BL8" s="47">
+        <f>SUM(BH8:BK8)</f>
         <v>229962379.28</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="BM8" s="18">
         <v>1708830799.68</v>
       </c>
-      <c r="AD8" s="56">
+      <c r="BN8" s="58">
         <v>14677880280</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="BO8" s="35">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="AF8" s="57">
+      <c r="BP8" s="59">
         <f t="shared" si="4"/>
         <v>0.394622865428495</v>
       </c>
-      <c r="AG8" s="57">
+      <c r="BQ8" s="59">
         <f t="shared" si="5"/>
         <v>0.293867961301426</v>
       </c>
-      <c r="AH8" s="57">
+      <c r="BR8" s="59">
         <f t="shared" si="6"/>
         <v>0.385518067116296</v>
       </c>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="69">
+      <c r="BS8" s="70"/>
+      <c r="BT8" s="71">
         <f t="shared" si="7"/>
         <v>0.389227742707715</v>
       </c>
-      <c r="AK8" s="69">
+      <c r="BU8" s="71">
         <f t="shared" si="8"/>
         <v>0.289850318499088</v>
       </c>
-      <c r="AL8" s="69">
+      <c r="BV8" s="71">
         <f t="shared" si="9"/>
         <v>0.380247421481224</v>
       </c>
-      <c r="AM8" s="69">
+      <c r="BW8" s="71">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:75">
       <c r="A9" s="19">
         <v>2017</v>
       </c>
@@ -3961,74 +4829,206 @@
         <v>-0.134115796359104</v>
       </c>
       <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
+      <c r="K9" s="18">
+        <v>153556153.88</v>
+      </c>
+      <c r="L9" s="18">
+        <v>130300000</v>
+      </c>
+      <c r="M9" s="18">
+        <v>249899453.62</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>35030000</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>10430000</v>
+      </c>
+      <c r="R9" s="18">
+        <v>1837423.4</v>
+      </c>
+      <c r="S9" s="18">
+        <v>130000</v>
+      </c>
+      <c r="T9" s="18">
+        <v>382171.59</v>
+      </c>
+      <c r="U9" s="18">
+        <v>6328709.5</v>
+      </c>
+      <c r="V9" s="18">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
+        <v>0</v>
+      </c>
       <c r="X9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>-5325411.62</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>116310866.27</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>16042808.16</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="18">
+        <v>563031084.48</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>58738053.22</v>
+      </c>
+      <c r="AH9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="18">
+        <v>170601003.5</v>
+      </c>
+      <c r="AQ9" s="18">
+        <v>10402446.4</v>
+      </c>
+      <c r="AR9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="18">
+        <v>-2689647.8</v>
+      </c>
+      <c r="AU9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="18">
+        <v>3853461.45</v>
+      </c>
+      <c r="BB9" s="18">
+        <v>14700900</v>
+      </c>
+      <c r="BC9" s="18">
+        <v>1052000</v>
+      </c>
+      <c r="BD9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="18">
+        <v>520225.59</v>
+      </c>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18">
         <v>129350004.27</v>
       </c>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18">
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18">
         <v>2442006.46</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="BK9" s="18">
         <v>1418080.25</v>
       </c>
-      <c r="AB9" s="46">
-        <f>SUM(X9:AA9)</f>
+      <c r="BL9" s="47">
+        <f>SUM(BH9:BK9)</f>
         <v>133210090.98</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="BM9" s="18">
         <v>263317968.65</v>
       </c>
-      <c r="AD9" s="56">
+      <c r="BN9" s="58">
         <v>12231566900</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="BO9" s="35">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="AF9" s="57">
+      <c r="BP9" s="59">
         <f t="shared" si="4"/>
         <v>0.488358949676349</v>
       </c>
-      <c r="AG9" s="57">
+      <c r="BQ9" s="59">
         <f t="shared" si="5"/>
         <v>0.477721892402027</v>
       </c>
-      <c r="AH9" s="57">
+      <c r="BR9" s="59">
         <f t="shared" si="6"/>
         <v>0.469523143128948</v>
       </c>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="69">
+      <c r="BS9" s="70"/>
+      <c r="BT9" s="71">
         <f t="shared" si="7"/>
         <v>0.479787463981791</v>
       </c>
-      <c r="AK9" s="69">
+      <c r="BU9" s="71">
         <f t="shared" si="8"/>
         <v>0.469337104185461</v>
       </c>
-      <c r="AL9" s="69">
+      <c r="BV9" s="71">
         <f t="shared" si="9"/>
         <v>0.461282256159925</v>
       </c>
-      <c r="AM9" s="69">
+      <c r="BW9" s="71">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:75">
       <c r="A10" s="19">
         <v>2016</v>
       </c>
@@ -4060,72 +5060,204 @@
         <v>0.824784763582315</v>
       </c>
       <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+      <c r="K10" s="18">
+        <v>148275854.67</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <v>0</v>
+      </c>
+      <c r="V10" s="18">
+        <v>0</v>
+      </c>
+      <c r="W10" s="18">
+        <v>0</v>
+      </c>
       <c r="X10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>-509462.86</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>583435</v>
+      </c>
+      <c r="AB10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="18">
+        <v>249082766.5</v>
+      </c>
+      <c r="AQ10" s="18">
+        <v>11844927.5</v>
+      </c>
+      <c r="AR10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="18">
+        <v>2990300.34</v>
+      </c>
+      <c r="BB10" s="18">
+        <v>14095000</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>9281214.32</v>
+      </c>
+      <c r="BD10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="18">
+        <v>2283960.28</v>
+      </c>
+      <c r="BF10" s="18">
+        <v>610105.86</v>
+      </c>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18">
         <v>125798247.77</v>
       </c>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18">
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18">
         <v>4570943.09</v>
       </c>
-      <c r="AB10" s="46">
-        <f>SUM(X10:AA10)</f>
+      <c r="BL10" s="47">
+        <f>SUM(BH10:BK10)</f>
         <v>130369190.86</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="BM10" s="18">
         <v>94956319.61</v>
       </c>
-      <c r="AD10" s="56">
+      <c r="BN10" s="58">
         <v>8736833500</v>
       </c>
-      <c r="AE10" s="35">
-        <f>(AD10-AD11)/AD11</f>
+      <c r="BO10" s="35">
+        <f>(BN10-BN11)/BN11</f>
         <v>1.12270743877612</v>
       </c>
-      <c r="AF10" s="57">
+      <c r="BP10" s="59">
         <f t="shared" si="4"/>
         <v>0.509092171010241</v>
       </c>
-      <c r="AG10" s="57">
+      <c r="BQ10" s="59">
         <f t="shared" si="5"/>
         <v>0.513145455446759</v>
       </c>
-      <c r="AH10" s="57">
+      <c r="BR10" s="59">
         <f t="shared" si="6"/>
         <v>0.482396878256865</v>
       </c>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="69">
+      <c r="BS10" s="70"/>
+      <c r="BT10" s="71">
         <f t="shared" si="7"/>
         <v>0.498936004404026</v>
       </c>
-      <c r="AK10" s="69">
+      <c r="BU10" s="71">
         <f t="shared" si="8"/>
         <v>0.502908427585189</v>
       </c>
-      <c r="AL10" s="69">
+      <c r="BV10" s="71">
         <f t="shared" si="9"/>
         <v>0.472773271089282</v>
       </c>
-      <c r="AM10" s="69">
+      <c r="BW10" s="71">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:75">
       <c r="A11" s="14">
         <v>2015</v>
       </c>
@@ -4151,69 +5283,201 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="K11" s="18">
+        <v>125227421.09</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
+        <v>0</v>
+      </c>
       <c r="X11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>-657407.87</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="18">
+        <v>242597490.45</v>
+      </c>
+      <c r="AQ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="18">
+        <v>3605461.52</v>
+      </c>
+      <c r="AW11" s="18">
+        <v>470427666.35</v>
+      </c>
+      <c r="AX11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="18">
+        <v>3181070.09</v>
+      </c>
+      <c r="BB11" s="18">
+        <v>3702256.9</v>
+      </c>
+      <c r="BC11" s="18">
+        <v>716291.04</v>
+      </c>
+      <c r="BD11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="18">
+        <v>2359546.67</v>
+      </c>
+      <c r="BF11" s="18">
+        <v>82509.33</v>
+      </c>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18">
         <v>135694324.6</v>
       </c>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18">
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
+      <c r="BK11" s="18">
         <v>3655837.73</v>
       </c>
-      <c r="AB11" s="46">
-        <f>SUM(X11:AA11)</f>
+      <c r="BL11" s="47">
+        <f>SUM(BH11:BK11)</f>
         <v>139350162.33</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="BM11" s="18">
         <v>92819426.83</v>
       </c>
-      <c r="AD11" s="56">
+      <c r="BN11" s="58">
         <v>4115891498</v>
       </c>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="57">
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="59">
         <f t="shared" si="4"/>
         <v>0.822609838479761</v>
       </c>
-      <c r="AG11" s="57">
+      <c r="BQ11" s="59">
         <f t="shared" si="5"/>
         <v>0.833914979910872</v>
       </c>
-      <c r="AH11" s="57">
+      <c r="BR11" s="59">
         <f t="shared" si="6"/>
         <v>0.768125565349876</v>
       </c>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="69">
+      <c r="BS11" s="70"/>
+      <c r="BT11" s="71">
         <f t="shared" si="7"/>
         <v>0.798756961017002</v>
       </c>
-      <c r="AK11" s="69">
+      <c r="BU11" s="71">
         <f t="shared" si="8"/>
         <v>0.809734291934987</v>
       </c>
-      <c r="AL11" s="69">
+      <c r="BV11" s="71">
         <f t="shared" si="9"/>
         <v>0.745852545834133</v>
       </c>
-      <c r="AM11" s="69">
+      <c r="BW11" s="71">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:39">
+    <row r="12" s="1" customFormat="1" spans="1:75">
       <c r="A12" s="21">
         <v>2014</v>
       </c>
@@ -4239,45 +5503,81 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="58">
-        <f>AVERAGE(AC4:AC11)</f>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="45"/>
+      <c r="BJ12" s="45"/>
+      <c r="BK12" s="45"/>
+      <c r="BL12" s="48"/>
+      <c r="BM12" s="60">
+        <f>AVERAGE(BM4:BM11)</f>
         <v>363601518.88</v>
       </c>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="60">
-        <f>AVERAGE(AF4:AF11)</f>
+      <c r="BN12" s="61"/>
+      <c r="BO12" s="29"/>
+      <c r="BP12" s="62">
+        <f>AVERAGE(BP4:BP11)</f>
         <v>0.404177370726357</v>
       </c>
-      <c r="AG12" s="22">
-        <f>AVERAGE(AG4:AG11)</f>
+      <c r="BQ12" s="22">
+        <f>AVERAGE(BQ4:BQ11)</f>
         <v>0.447899018848946</v>
       </c>
-      <c r="AH12" s="60">
-        <f>AVERAGE(AH4:AH11)</f>
+      <c r="BR12" s="62">
+        <f>AVERAGE(BR4:BR11)</f>
         <v>0.44020174186498</v>
       </c>
-      <c r="AI12" s="70"/>
-      <c r="AJ12" s="71">
-        <f>AVERAGE(AJ4:AJ11)</f>
+      <c r="BS12" s="72"/>
+      <c r="BT12" s="73">
+        <f>AVERAGE(BT4:BT11)</f>
         <v>0.396067465116876</v>
       </c>
-      <c r="AK12" s="71">
-        <f>AVERAGE(AK4:AK11)</f>
+      <c r="BU12" s="73">
+        <f>AVERAGE(BU4:BU11)</f>
         <v>0.438937476225644</v>
       </c>
-      <c r="AL12" s="71">
-        <f>AVERAGE(AL4:AL11)</f>
+      <c r="BV12" s="73">
+        <f>AVERAGE(BV4:BV11)</f>
         <v>0.431520295330682</v>
       </c>
-      <c r="AM12" s="71"/>
+      <c r="BW12" s="73"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:75">
       <c r="A13" s="14">
         <v>2013</v>
       </c>
@@ -4309,18 +5609,54 @@
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="57"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
       <c r="AG13" s="18"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
+      <c r="BK13" s="18"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="59"/>
+      <c r="BQ13" s="18"/>
+      <c r="BR13" s="59"/>
+      <c r="BS13" s="70"/>
+      <c r="BT13" s="71"/>
+      <c r="BU13" s="71"/>
+      <c r="BV13" s="71"/>
+      <c r="BW13" s="71"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:75">
       <c r="A14" s="14">
         <v>2012</v>
       </c>
@@ -4352,18 +5688,54 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="57"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
       <c r="AG14" s="18"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="18"/>
+      <c r="BJ14" s="18"/>
+      <c r="BK14" s="18"/>
+      <c r="BL14" s="18"/>
+      <c r="BM14" s="18"/>
+      <c r="BN14" s="58"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="59"/>
+      <c r="BQ14" s="18"/>
+      <c r="BR14" s="59"/>
+      <c r="BS14" s="70"/>
+      <c r="BT14" s="71"/>
+      <c r="BU14" s="71"/>
+      <c r="BV14" s="71"/>
+      <c r="BW14" s="71"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:75">
       <c r="A15" s="14">
         <v>2011</v>
       </c>
@@ -4395,18 +5767,54 @@
       <c r="AA15" s="23"/>
       <c r="AB15" s="23"/>
       <c r="AC15" s="23"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="55"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
       <c r="AG15" s="23"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="23"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="23"/>
+      <c r="BK15" s="23"/>
+      <c r="BL15" s="23"/>
+      <c r="BM15" s="23"/>
+      <c r="BN15" s="55"/>
+      <c r="BO15" s="28"/>
+      <c r="BP15" s="57"/>
+      <c r="BQ15" s="23"/>
+      <c r="BR15" s="57"/>
+      <c r="BS15" s="74"/>
+      <c r="BT15" s="71"/>
+      <c r="BU15" s="71"/>
+      <c r="BV15" s="71"/>
+      <c r="BW15" s="71"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:75">
       <c r="A16" s="14">
         <v>2010</v>
       </c>
@@ -4438,25 +5846,65 @@
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="55"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
       <c r="AG16" s="23"/>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18" s="36"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
+      <c r="BK16" s="23"/>
+      <c r="BL16" s="23"/>
+      <c r="BM16" s="23"/>
+      <c r="BN16" s="55"/>
+      <c r="BO16" s="28"/>
+      <c r="BP16" s="57"/>
+      <c r="BQ16" s="23"/>
+      <c r="BR16" s="57"/>
+      <c r="BS16" s="74"/>
+      <c r="BT16" s="71"/>
+      <c r="BU16" s="71"/>
+      <c r="BV16" s="71"/>
+      <c r="BW16" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AJ1:AM1"/>
+  <mergeCells count="27">
+    <mergeCell ref="L1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:BA1"/>
+    <mergeCell ref="BB1:BF1"/>
+    <mergeCell ref="BH1:BM1"/>
+    <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -4467,13 +5915,13 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="BN1:BN2"/>
+    <mergeCell ref="BO1:BO2"/>
+    <mergeCell ref="BP1:BP2"/>
+    <mergeCell ref="BQ1:BQ2"/>
+    <mergeCell ref="BR1:BR2"/>
+    <mergeCell ref="BS1:BS2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
